--- a/data/CS1/Market Data/CS1_market_data_2030.xlsx
+++ b/data/CS1/Market Data/CS1_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC2DAFC-2015-4846-A6E6-11E7DF49CFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A306119-5AA3-44B4-B0E9-B74ABC91158E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,22 +158,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0.01</v>
+            <v>0.02</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>2.5000000000000001E-2</v>
+            <v>0.02</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>2.5000000000000001E-2</v>
+            <v>0.02</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>2.5000000000000001E-2</v>
+            <v>0.02</v>
           </cell>
         </row>
       </sheetData>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B6" s="1">
         <f>(1+[1]Main!$B$2)^($B$3-2020)</f>
-        <v>1.1046221254112047</v>
+        <v>1.2189944199947571</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="B7" s="1">
         <f>(1+[1]Main!$B$3)^($B$3-2020)</f>
-        <v>1.2800845441963571</v>
+        <v>1.2189944199947571</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B8" s="1">
         <f>(1+[1]Main!$B$4)^($B$3-2020)</f>
-        <v>1.2800845441963571</v>
+        <v>1.2189944199947571</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="B9" s="1">
         <f>(1+[1]Main!$B$5)^($B$3-2020)</f>
-        <v>1.2800845441963571</v>
+        <v>1.2189944199947571</v>
       </c>
     </row>
   </sheetData>
@@ -2422,99 +2422,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*Scenarios!$B$6</f>
-        <v>38.705959274408613</v>
+        <v>42.713564476616291</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*Scenarios!$B$6</f>
-        <v>37.579244706489192</v>
+        <v>41.470190168221642</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*Scenarios!$B$6</f>
-        <v>33.138663762336144</v>
+        <v>36.569832599842712</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*Scenarios!$B$6</f>
-        <v>33.171802426098481</v>
+        <v>36.606402432442557</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*Scenarios!$B$6</f>
-        <v>37.104257192562372</v>
+        <v>40.946022567623892</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*Scenarios!$B$6</f>
-        <v>36.839147882463678</v>
+        <v>40.653463906825152</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*Scenarios!$B$6</f>
-        <v>37.568198485235072</v>
+        <v>41.458000224021688</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*Scenarios!$B$6</f>
-        <v>39.026299690777861</v>
+        <v>43.067072858414768</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*Scenarios!$B$6</f>
-        <v>40.804741312689899</v>
+        <v>45.029653874606325</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*Scenarios!$B$6</f>
-        <v>42.793061138430076</v>
+        <v>47.223843830596891</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*Scenarios!$B$6</f>
-        <v>40.429169790050096</v>
+        <v>44.615195771808111</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*Scenarios!$B$6</f>
-        <v>37.767030467809086</v>
+        <v>41.677419219620745</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*Scenarios!$B$6</f>
-        <v>37.55715226398096</v>
+        <v>41.445810279821742</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*Scenarios!$B$6</f>
-        <v>37.55715226398096</v>
+        <v>41.445810279821742</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*Scenarios!$B$6</f>
-        <v>33.138663762336144</v>
+        <v>36.569832599842712</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*Scenarios!$B$6</f>
-        <v>31.813117211842698</v>
+        <v>35.107039295849006</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*Scenarios!$B$6</f>
-        <v>33.028201549795021</v>
+        <v>36.447933157843238</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*Scenarios!$B$6</f>
-        <v>42.251796296978583</v>
+        <v>46.626536564799459</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*Scenarios!$B$6</f>
-        <v>44.12965391017763</v>
+        <v>48.698827078790551</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*Scenarios!$B$6</f>
-        <v>45.78658709829444</v>
+        <v>50.527318708782687</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*Scenarios!$B$6</f>
-        <v>49.520209882184304</v>
+        <v>54.647519848364958</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*Scenarios!$B$6</f>
-        <v>49.509163660930199</v>
+        <v>54.635329904165012</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*Scenarios!$B$6</f>
-        <v>45.179044929318273</v>
+        <v>49.856871777785564</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*Scenarios!$B$6</f>
-        <v>43.908729485095385</v>
+        <v>48.455028194791595</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2523,99 +2523,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*Scenarios!$B$6</f>
-        <v>33.414819293688943</v>
+        <v>36.874581204841405</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*Scenarios!$B$6</f>
-        <v>29.659104067290848</v>
+        <v>32.730000176859228</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*Scenarios!$B$6</f>
-        <v>24.577842290399307</v>
+        <v>27.122625844883345</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*Scenarios!$B$6</f>
-        <v>19.982614248688694</v>
+        <v>22.051609057705157</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*Scenarios!$B$6</f>
-        <v>11.046221254112048</v>
+        <v>12.189944199947572</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*Scenarios!$B$6</f>
-        <v>8.836977003289638</v>
+        <v>9.7519553599580568</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*Scenarios!$B$6</f>
-        <v>9.2898720747082315</v>
+        <v>10.251743072155907</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*Scenarios!$B$6</f>
-        <v>9.2898720747082315</v>
+        <v>10.251743072155907</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*Scenarios!$B$6</f>
-        <v>11.929918954441012</v>
+        <v>13.165139735943377</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*Scenarios!$B$6</f>
-        <v>18.767529910736368</v>
+        <v>20.710715195710922</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*Scenarios!$B$6</f>
-        <v>21.584316330534939</v>
+        <v>23.819150966697553</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*Scenarios!$B$6</f>
-        <v>19.79482848736879</v>
+        <v>21.84438000630605</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*Scenarios!$B$6</f>
-        <v>25.130153353104909</v>
+        <v>27.732123054880724</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*Scenarios!$B$6</f>
-        <v>22.092442508224096</v>
+        <v>24.379888399895144</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*Scenarios!$B$6</f>
-        <v>23.826699245119688</v>
+        <v>26.293709639286909</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*Scenarios!$B$6</f>
-        <v>21.429669232977371</v>
+        <v>23.648491747898287</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*Scenarios!$B$6</f>
-        <v>26.290006584786674</v>
+        <v>29.012067195875218</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*Scenarios!$B$6</f>
-        <v>32.3654282745483</v>
+        <v>35.716536505846385</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*Scenarios!$B$6</f>
-        <v>38.960022363253195</v>
+        <v>42.993933193215085</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*Scenarios!$B$6</f>
-        <v>45.289507141859396</v>
+        <v>49.978771219785038</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*Scenarios!$B$6</f>
-        <v>47.520843835190028</v>
+        <v>52.441139948174452</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*Scenarios!$B$6</f>
-        <v>47.498751392681804</v>
+        <v>52.416760059774553</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*Scenarios!$B$6</f>
-        <v>45.698217328261535</v>
+        <v>50.429799155183098</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*Scenarios!$B$6</f>
-        <v>45.676124885753318</v>
+        <v>50.405419266783206</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2624,99 +2624,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Winter'!B4*Scenarios!$B$6</f>
-        <v>51.475391044162144</v>
+        <v>56.805139971755686</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Winter'!C4*Scenarios!$B$6</f>
-        <v>47.542936277698253</v>
+        <v>52.465519836574344</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Winter'!D4*Scenarios!$B$6</f>
-        <v>46.471452816049386</v>
+        <v>51.283095249179432</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Winter'!E4*Scenarios!$B$6</f>
-        <v>42.881430908462967</v>
+        <v>47.321363384196474</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Winter'!F4*Scenarios!$B$6</f>
-        <v>43.179678882323998</v>
+        <v>47.650491877595059</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Winter'!G4*Scenarios!$B$6</f>
-        <v>47.730722039018161</v>
+        <v>52.672748887973455</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Winter'!H4*Scenarios!$B$6</f>
-        <v>60.080397401115427</v>
+        <v>66.301106503514845</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Winter'!I4*Scenarios!$B$6</f>
-        <v>62.97450736969278</v>
+        <v>69.494871883901098</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Winter'!J4*Scenarios!$B$6</f>
-        <v>66.299419967180512</v>
+        <v>73.164045088085331</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Winter'!K4*Scenarios!$B$6</f>
-        <v>65.029104522957624</v>
+        <v>71.762201505091355</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Winter'!L4*Scenarios!$B$6</f>
-        <v>64.289007698932124</v>
+        <v>70.945475243694872</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Winter'!M4*Scenarios!$B$6</f>
-        <v>64.79713387662126</v>
+        <v>71.506212676892446</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Winter'!N4*Scenarios!$B$6</f>
-        <v>61.869885244281576</v>
+        <v>68.27587746390634</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Winter'!O4*Scenarios!$B$6</f>
-        <v>60.820494225140934</v>
+        <v>67.117832764911327</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Winter'!P4*Scenarios!$B$6</f>
-        <v>60.85363288890327</v>
+        <v>67.154402597511179</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Winter'!Q4*Scenarios!$B$6</f>
-        <v>61.439082615371206</v>
+        <v>67.800469640108389</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Winter'!R4*Scenarios!$B$6</f>
-        <v>62.146040775634376</v>
+        <v>68.580626068905033</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Winter'!S4*Scenarios!$B$6</f>
-        <v>62.687305617085869</v>
+        <v>69.177933334702459</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Winter'!T4*Scenarios!$B$6</f>
-        <v>65.736062683220794</v>
+        <v>72.542357933887999</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Winter'!U4*Scenarios!$B$6</f>
-        <v>65.802340010745468</v>
+        <v>72.615497599087675</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Winter'!V4*Scenarios!$B$6</f>
-        <v>62.687305617085869</v>
+        <v>69.177933334702459</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Winter'!W4*Scenarios!$B$6</f>
-        <v>57.716506052735447</v>
+        <v>63.692458444726057</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Winter'!X4*Scenarios!$B$6</f>
-        <v>51.928286115580732</v>
+        <v>57.30492768395353</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Winter'!Y4*Scenarios!$B$6</f>
-        <v>48.238848216707311</v>
+        <v>53.233486321171043</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -2870,99 +2870,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Winter'!B2*Scenarios!$B$7</f>
-        <v>3.4306265784462373</v>
+        <v>3.2669050455859492</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Winter'!C2*Scenarios!$B$7</f>
-        <v>4.1346730777542335</v>
+        <v>3.9373519765830656</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Winter'!D2*Scenarios!$B$7</f>
-        <v>9.7286425358923125</v>
+        <v>9.2643575919601542</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Winter'!E2*Scenarios!$B$7</f>
-        <v>5.5811686126961177</v>
+        <v>5.3148156711771417</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Winter'!F2*Scenarios!$B$7</f>
-        <v>5.6451728399059347</v>
+        <v>5.3757653921768789</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Winter'!G2*Scenarios!$B$7</f>
-        <v>7.654905574294216</v>
+        <v>7.2895866315686479</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Winter'!H2*Scenarios!$B$7</f>
-        <v>6.6436387843790934</v>
+        <v>6.3265810397727895</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Winter'!I2*Scenarios!$B$7</f>
-        <v>7.7829140287138516</v>
+        <v>7.4114860735681232</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Winter'!J2*Scenarios!$B$7</f>
-        <v>5.9907956668389506</v>
+        <v>5.704893885575463</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Winter'!K2*Scenarios!$B$7</f>
-        <v>5.6963762216737894</v>
+        <v>5.4245251689766691</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Winter'!L2*Scenarios!$B$7</f>
-        <v>8.4229563008120305</v>
+        <v>8.0209832835655011</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Winter'!M2*Scenarios!$B$7</f>
-        <v>12.019993870003793</v>
+        <v>11.446357603750769</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Winter'!N2*Scenarios!$B$7</f>
-        <v>12.480824305914481</v>
+        <v>11.885195594948883</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Winter'!O2*Scenarios!$B$7</f>
-        <v>13.632900395691204</v>
+        <v>12.982290572944164</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Winter'!P2*Scenarios!$B$7</f>
-        <v>14.554561267512579</v>
+        <v>13.859966555340387</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q2*Scenarios!$B$7</f>
-        <v>14.093730831601892</v>
+        <v>13.421128564142276</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Winter'!R2*Scenarios!$B$7</f>
-        <v>5.5939694581380808</v>
+        <v>5.3270056153770886</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Winter'!S2*Scenarios!$B$7</f>
-        <v>6.6180370934951664</v>
+        <v>6.3022011513728939</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Winter'!T2*Scenarios!$B$7</f>
-        <v>7.7957148741558147</v>
+        <v>7.423676017768071</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Winter'!U2*Scenarios!$B$7</f>
-        <v>6.1060032758166232</v>
+        <v>5.8146033833749913</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Winter'!V2*Scenarios!$B$7</f>
-        <v>5.9395922850710967</v>
+        <v>5.6561341087756727</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Winter'!W2*Scenarios!$B$7</f>
-        <v>4.608304359106886</v>
+        <v>4.3883799119811258</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Winter'!X2*Scenarios!$B$7</f>
-        <v>5.4531601582764813</v>
+        <v>5.1929162291776647</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y2*Scenarios!$B$7</f>
-        <v>26.638559364726188</v>
+        <v>25.367273880090895</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2971,99 +2971,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Secondary Reserve, Winter'!B3*Scenarios!$B$7</f>
-        <v>34.715892838605207</v>
+        <v>33.059128670257813</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Secondary Reserve, Winter'!C3*Scenarios!$B$7</f>
-        <v>36.508011200480105</v>
+        <v>34.765720858250475</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Secondary Reserve, Winter'!D3*Scenarios!$B$7</f>
-        <v>49.98730145086774</v>
+        <v>47.60173210079526</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Secondary Reserve, Winter'!E3*Scenarios!$B$7</f>
-        <v>56.66934277157273</v>
+        <v>53.964882973167903</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Secondary Reserve, Winter'!F3*Scenarios!$B$7</f>
-        <v>61.674473339380484</v>
+        <v>58.731151155347398</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Secondary Reserve, Winter'!G3*Scenarios!$B$7</f>
-        <v>61.303248821563542</v>
+        <v>58.377642773548921</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Secondary Reserve, Winter'!H3*Scenarios!$B$7</f>
-        <v>60.880820921978746</v>
+        <v>57.975374614950653</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Secondary Reserve, Winter'!I3*Scenarios!$B$7</f>
-        <v>63.812214528188406</v>
+        <v>60.766871836738645</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Secondary Reserve, Winter'!J3*Scenarios!$B$7</f>
-        <v>59.395922850710967</v>
+        <v>56.56134108775673</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Secondary Reserve, Winter'!K3*Scenarios!$B$7</f>
-        <v>51.331390222273924</v>
+        <v>48.881676241789762</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Secondary Reserve, Winter'!L3*Scenarios!$B$7</f>
-        <v>52.790686602657772</v>
+        <v>50.271329880583785</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Secondary Reserve, Winter'!M3*Scenarios!$B$7</f>
-        <v>43.177251675743122</v>
+        <v>41.11668178642315</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Secondary Reserve, Winter'!N3*Scenarios!$B$7</f>
-        <v>49.206449878907961</v>
+        <v>46.858145504598461</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Secondary Reserve, Winter'!O3*Scenarios!$B$7</f>
-        <v>36.712824727551521</v>
+        <v>34.960759965449633</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Secondary Reserve, Winter'!P3*Scenarios!$B$7</f>
-        <v>38.658553234729986</v>
+        <v>36.813631483841661</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q3*Scenarios!$B$7</f>
-        <v>34.715892838605207</v>
+        <v>33.059128670257813</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Secondary Reserve, Winter'!R3*Scenarios!$B$7</f>
-        <v>23.284737858931738</v>
+        <v>22.173508499704635</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Secondary Reserve, Winter'!S3*Scenarios!$B$7</f>
-        <v>29.032317462373378</v>
+        <v>27.646793445481091</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Secondary Reserve, Winter'!T3*Scenarios!$B$7</f>
-        <v>18.970852944990014</v>
+        <v>18.065497304322299</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Secondary Reserve, Winter'!U3*Scenarios!$B$7</f>
-        <v>16.641099074552642</v>
+        <v>15.846927459931843</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Secondary Reserve, Winter'!V3*Scenarios!$B$7</f>
-        <v>18.574026736289142</v>
+        <v>17.687609034123927</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Secondary Reserve, Winter'!W3*Scenarios!$B$7</f>
-        <v>21.812640633105925</v>
+        <v>20.771664916710659</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Secondary Reserve, Winter'!X3*Scenarios!$B$7</f>
-        <v>23.310339549815662</v>
+        <v>22.197888388104527</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y3*Scenarios!$B$7</f>
-        <v>17.921183618748998</v>
+        <v>17.065921879926599</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3072,99 +3072,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Secondary Reserve, Winter'!B4*Scenarios!$B$7</f>
-        <v>21.031789061146146</v>
+        <v>20.02807832051386</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Secondary Reserve, Winter'!C4*Scenarios!$B$7</f>
-        <v>19.854111280485498</v>
+        <v>18.906603454118681</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Secondary Reserve, Winter'!D4*Scenarios!$B$7</f>
-        <v>21.044589906588111</v>
+        <v>20.040268264713809</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Secondary Reserve, Winter'!E4*Scenarios!$B$7</f>
-        <v>21.006187370262221</v>
+        <v>20.003698432113964</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Secondary Reserve, Winter'!F4*Scenarios!$B$7</f>
-        <v>21.659030487802365</v>
+        <v>20.625385586311292</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Secondary Reserve, Winter'!G4*Scenarios!$B$7</f>
-        <v>18.074793764052561</v>
+        <v>17.212201210325969</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Secondary Reserve, Winter'!H4*Scenarios!$B$7</f>
-        <v>15.809044120825009</v>
+        <v>15.054581086935249</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Secondary Reserve, Winter'!I4*Scenarios!$B$7</f>
-        <v>14.912984939887561</v>
+        <v>14.201284992938922</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Secondary Reserve, Winter'!J4*Scenarios!$B$7</f>
-        <v>13.376883486851931</v>
+        <v>12.73849168894521</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Secondary Reserve, Winter'!K4*Scenarios!$B$7</f>
-        <v>12.173604015307356</v>
+        <v>11.592636934150139</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Secondary Reserve, Winter'!L4*Scenarios!$B$7</f>
-        <v>9.9846594447315855</v>
+        <v>9.5081564759591046</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Secondary Reserve, Winter'!M4*Scenarios!$B$7</f>
-        <v>10.023061981057475</v>
+        <v>9.544726308558948</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Secondary Reserve, Winter'!N4*Scenarios!$B$7</f>
-        <v>10.944722852878854</v>
+        <v>10.422402290955175</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Secondary Reserve, Winter'!O4*Scenarios!$B$7</f>
-        <v>10.944722852878854</v>
+        <v>10.422402290955175</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Secondary Reserve, Winter'!P4*Scenarios!$B$7</f>
-        <v>12.160803169865392</v>
+        <v>11.580446989950193</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q4*Scenarios!$B$7</f>
-        <v>9.5366298542628609</v>
+        <v>9.0815084289609409</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Secondary Reserve, Winter'!R4*Scenarios!$B$7</f>
-        <v>8.026130092111158</v>
+        <v>7.6430950133671267</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Secondary Reserve, Winter'!S4*Scenarios!$B$7</f>
-        <v>8.9349901184905729</v>
+        <v>8.5085810515634055</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Secondary Reserve, Winter'!T4*Scenarios!$B$7</f>
-        <v>6.6692404752630203</v>
+        <v>6.3509609281726842</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Secondary Reserve, Winter'!U4*Scenarios!$B$7</f>
-        <v>6.5668337117273117</v>
+        <v>6.2534413745731037</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Secondary Reserve, Winter'!V4*Scenarios!$B$7</f>
-        <v>6.9252573841022924</v>
+        <v>6.5947598121716364</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Secondary Reserve, Winter'!W4*Scenarios!$B$7</f>
-        <v>12.160803169865392</v>
+        <v>11.580446989950193</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Secondary Reserve, Winter'!X4*Scenarios!$B$7</f>
-        <v>13.748108004668875</v>
+        <v>13.092000070743692</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y4*Scenarios!$B$7</f>
-        <v>13.748108004668875</v>
+        <v>13.092000070743692</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -3343,99 +3343,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B2*Scenarios!$B$8</f>
-        <v>64.017028055259814</v>
+        <v>60.961910943937802</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C2*Scenarios!$B$8</f>
-        <v>57.603804488836069</v>
+        <v>54.854748899764068</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D2*Scenarios!$B$8</f>
-        <v>62.7241426656215</v>
+        <v>59.730726579743099</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E2*Scenarios!$B$8</f>
-        <v>47.759954343966086</v>
+        <v>45.480681810004391</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F2*Scenarios!$B$8</f>
-        <v>47.759954343966086</v>
+        <v>45.480681810004391</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G2*Scenarios!$B$8</f>
-        <v>61.444058121425144</v>
+        <v>58.511732159748341</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H2*Scenarios!$B$8</f>
-        <v>64.017028055259814</v>
+        <v>60.961910943937802</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I2*Scenarios!$B$8</f>
-        <v>64.017028055259814</v>
+        <v>60.961910943937802</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J2*Scenarios!$B$8</f>
-        <v>61.444058121425144</v>
+        <v>58.511732159748341</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K2*Scenarios!$B$8</f>
-        <v>60.010363431925221</v>
+        <v>57.146458409354217</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L2*Scenarios!$B$8</f>
-        <v>61.290447976121584</v>
+        <v>58.365452829348975</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M2*Scenarios!$B$8</f>
-        <v>61.290447976121584</v>
+        <v>58.365452829348975</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N2*Scenarios!$B$8</f>
-        <v>61.290447976121584</v>
+        <v>58.365452829348975</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O2*Scenarios!$B$8</f>
-        <v>61.290447976121584</v>
+        <v>58.365452829348975</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P2*Scenarios!$B$8</f>
-        <v>61.290447976121584</v>
+        <v>58.365452829348975</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q2*Scenarios!$B$8</f>
-        <v>61.290447976121584</v>
+        <v>58.365452829348975</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R2*Scenarios!$B$8</f>
-        <v>61.290447976121584</v>
+        <v>58.365452829348975</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S2*Scenarios!$B$8</f>
-        <v>61.290447976121584</v>
+        <v>58.365452829348975</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T2*Scenarios!$B$8</f>
-        <v>61.290447976121584</v>
+        <v>58.365452829348975</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U2*Scenarios!$B$8</f>
-        <v>61.290447976121584</v>
+        <v>58.365452829348975</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V2*Scenarios!$B$8</f>
-        <v>61.290447976121584</v>
+        <v>58.365452829348975</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W2*Scenarios!$B$8</f>
-        <v>61.290447976121584</v>
+        <v>58.365452829348975</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X2*Scenarios!$B$8</f>
-        <v>61.290447976121584</v>
+        <v>58.365452829348975</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y2*Scenarios!$B$8</f>
-        <v>61.290447976121584</v>
+        <v>58.365452829348975</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3444,99 +3444,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B3*Scenarios!$B$8</f>
-        <v>61.021630221840347</v>
+        <v>58.109464001150073</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C3*Scenarios!$B$8</f>
-        <v>41.525942613729818</v>
+        <v>39.544178984629916</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D3*Scenarios!$B$8</f>
-        <v>41.525942613729818</v>
+        <v>39.544178984629916</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E3*Scenarios!$B$8</f>
-        <v>41.525942613729818</v>
+        <v>39.544178984629916</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F3*Scenarios!$B$8</f>
-        <v>41.525942613729818</v>
+        <v>39.544178984629916</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G3*Scenarios!$B$8</f>
-        <v>41.525942613729818</v>
+        <v>39.544178984629916</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H3*Scenarios!$B$8</f>
-        <v>41.525942613729818</v>
+        <v>39.544178984629916</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I3*Scenarios!$B$8</f>
-        <v>41.525942613729818</v>
+        <v>39.544178984629916</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J3*Scenarios!$B$8</f>
-        <v>61.021630221840347</v>
+        <v>58.109464001150073</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K3*Scenarios!$B$8</f>
-        <v>46.646280790515249</v>
+        <v>44.420156664608946</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L3*Scenarios!$B$8</f>
-        <v>47.926365334711605</v>
+        <v>45.639151084603704</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M3*Scenarios!$B$8</f>
-        <v>47.926365334711605</v>
+        <v>45.639151084603704</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N3*Scenarios!$B$8</f>
-        <v>47.926365334711605</v>
+        <v>45.639151084603704</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O3*Scenarios!$B$8</f>
-        <v>47.926365334711605</v>
+        <v>45.639151084603704</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P3*Scenarios!$B$8</f>
-        <v>47.926365334711605</v>
+        <v>45.639151084603704</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q3*Scenarios!$B$8</f>
-        <v>52.086640103349765</v>
+        <v>49.600882949586662</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R3*Scenarios!$B$8</f>
-        <v>61.021630221840347</v>
+        <v>58.109464001150073</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S3*Scenarios!$B$8</f>
-        <v>56.835753762318255</v>
+        <v>54.123352247767215</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T3*Scenarios!$B$8</f>
-        <v>56.835753762318255</v>
+        <v>54.123352247767215</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U3*Scenarios!$B$8</f>
-        <v>56.835753762318255</v>
+        <v>54.123352247767215</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V3*Scenarios!$B$8</f>
-        <v>56.835753762318255</v>
+        <v>54.123352247767215</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W3*Scenarios!$B$8</f>
-        <v>61.021630221840347</v>
+        <v>58.109464001150073</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X3*Scenarios!$B$8</f>
-        <v>61.021630221840347</v>
+        <v>58.109464001150073</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y3*Scenarios!$B$8</f>
-        <v>57.603804488836069</v>
+        <v>54.854748899764068</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3545,99 +3545,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B4*Scenarios!$B$8</f>
-        <v>70.404649930799636</v>
+        <v>67.044693099711637</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C4*Scenarios!$B$8</f>
-        <v>72.952018173750389</v>
+        <v>69.470491995501206</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D4*Scenarios!$B$8</f>
-        <v>72.952018173750389</v>
+        <v>69.470491995501206</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E4*Scenarios!$B$8</f>
-        <v>70.404649930799636</v>
+        <v>67.044693099711637</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F4*Scenarios!$B$8</f>
-        <v>70.404649930799636</v>
+        <v>67.044693099711637</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G4*Scenarios!$B$8</f>
-        <v>70.404649930799636</v>
+        <v>67.044693099711637</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H4*Scenarios!$B$8</f>
-        <v>72.952018173750389</v>
+        <v>69.470491995501206</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I4*Scenarios!$B$8</f>
-        <v>72.952018173750389</v>
+        <v>69.470491995501206</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J4*Scenarios!$B$8</f>
-        <v>70.404649930799636</v>
+        <v>67.044693099711637</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K4*Scenarios!$B$8</f>
-        <v>70.404649930799636</v>
+        <v>67.044693099711637</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L4*Scenarios!$B$8</f>
-        <v>70.404649930799636</v>
+        <v>67.044693099711637</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M4*Scenarios!$B$8</f>
-        <v>70.404649930799636</v>
+        <v>67.044693099711637</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N4*Scenarios!$B$8</f>
-        <v>76.741068424571608</v>
+        <v>73.078715478685695</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O4*Scenarios!$B$8</f>
-        <v>76.741068424571608</v>
+        <v>73.078715478685695</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P4*Scenarios!$B$8</f>
-        <v>76.741068424571608</v>
+        <v>73.078715478685695</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q4*Scenarios!$B$8</f>
-        <v>76.741068424571608</v>
+        <v>73.078715478685695</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R4*Scenarios!$B$8</f>
-        <v>76.741068424571608</v>
+        <v>73.078715478685695</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S4*Scenarios!$B$8</f>
-        <v>70.404649930799636</v>
+        <v>67.044693099711637</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T4*Scenarios!$B$8</f>
-        <v>70.404649930799636</v>
+        <v>67.044693099711637</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U4*Scenarios!$B$8</f>
-        <v>70.404649930799636</v>
+        <v>67.044693099711637</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V4*Scenarios!$B$8</f>
-        <v>70.404649930799636</v>
+        <v>67.044693099711637</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W4*Scenarios!$B$8</f>
-        <v>70.404649930799636</v>
+        <v>67.044693099711637</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X4*Scenarios!$B$8</f>
-        <v>70.404649930799636</v>
+        <v>67.044693099711637</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y4*Scenarios!$B$8</f>
-        <v>70.404649930799636</v>
+        <v>67.044693099711637</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -3790,11 +3790,11 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B2*Scenarios!$B$9</f>
-        <v>31.963711068583034</v>
+        <v>30.438290667269083</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C2*Scenarios!$B$9</f>
-        <v>31.963711068583034</v>
+        <v>30.438290667269083</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D2*Scenarios!$B$9</f>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E2*Scenarios!$B$9</f>
-        <v>33.243795612779394</v>
+        <v>31.65728508726384</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F2*Scenarios!$B$9</f>
@@ -3810,79 +3810,79 @@
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G2*Scenarios!$B$9</f>
-        <v>31.963711068583034</v>
+        <v>30.438290667269083</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H2*Scenarios!$B$9</f>
-        <v>38.082515189841622</v>
+        <v>36.265083994844026</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I2*Scenarios!$B$9</f>
-        <v>38.082515189841622</v>
+        <v>36.265083994844026</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J2*Scenarios!$B$9</f>
-        <v>31.963711068583034</v>
+        <v>30.438290667269083</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K2*Scenarios!$B$9</f>
-        <v>38.082515189841622</v>
+        <v>36.265083994844026</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L2*Scenarios!$B$9</f>
-        <v>31.963711068583034</v>
+        <v>30.438290667269083</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M2*Scenarios!$B$9</f>
-        <v>31.963711068583034</v>
+        <v>30.438290667269083</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N2*Scenarios!$B$9</f>
-        <v>31.963711068583034</v>
+        <v>30.438290667269083</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O2*Scenarios!$B$9</f>
-        <v>32.014914450350894</v>
+        <v>30.487050444068878</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P2*Scenarios!$B$9</f>
-        <v>31.963711068583034</v>
+        <v>30.438290667269083</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q2*Scenarios!$B$9</f>
-        <v>31.963711068583034</v>
+        <v>30.438290667269083</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R2*Scenarios!$B$9</f>
-        <v>38.082515189841622</v>
+        <v>36.265083994844026</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S2*Scenarios!$B$9</f>
-        <v>38.082515189841622</v>
+        <v>36.265083994844026</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T2*Scenarios!$B$9</f>
-        <v>38.082515189841622</v>
+        <v>36.265083994844026</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U2*Scenarios!$B$9</f>
-        <v>38.082515189841622</v>
+        <v>36.265083994844026</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V2*Scenarios!$B$9</f>
-        <v>38.082515189841622</v>
+        <v>36.265083994844026</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W2*Scenarios!$B$9</f>
-        <v>38.082515189841622</v>
+        <v>36.265083994844026</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X2*Scenarios!$B$9</f>
-        <v>38.082515189841622</v>
+        <v>36.265083994844026</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y2*Scenarios!$B$9</f>
-        <v>38.082515189841622</v>
+        <v>36.265083994844026</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B3*Scenarios!$B$9</f>
-        <v>5.4019567765086265</v>
+        <v>5.1441564523778744</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C3*Scenarios!$B$9</f>
@@ -3899,31 +3899,31 @@
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D3*Scenarios!$B$9</f>
-        <v>5.4019567765086265</v>
+        <v>5.1441564523778744</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E3*Scenarios!$B$9</f>
-        <v>5.4019567765086265</v>
+        <v>5.1441564523778744</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F3*Scenarios!$B$9</f>
-        <v>5.4019567765086265</v>
+        <v>5.1441564523778744</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G3*Scenarios!$B$9</f>
-        <v>5.4019567765086265</v>
+        <v>5.1441564523778744</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H3*Scenarios!$B$9</f>
-        <v>5.4019567765086265</v>
+        <v>5.1441564523778744</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I3*Scenarios!$B$9</f>
-        <v>5.4019567765086265</v>
+        <v>5.1441564523778744</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J3*Scenarios!$B$9</f>
-        <v>5.4019567765086265</v>
+        <v>5.1441564523778744</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K3*Scenarios!$B$9</f>
@@ -3959,31 +3959,31 @@
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S3*Scenarios!$B$9</f>
-        <v>7.4244903563388709</v>
+        <v>7.0701676359695913</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T3*Scenarios!$B$9</f>
-        <v>7.5524988107585074</v>
+        <v>7.1920670779690674</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U3*Scenarios!$B$9</f>
-        <v>7.5524988107585074</v>
+        <v>7.1920670779690674</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V3*Scenarios!$B$9</f>
-        <v>7.8085157195977777</v>
+        <v>7.4358659619680179</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W3*Scenarios!$B$9</f>
-        <v>7.5524988107585074</v>
+        <v>7.1920670779690674</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X3*Scenarios!$B$9</f>
-        <v>7.1684734474995988</v>
+        <v>6.8263687519706391</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y3*Scenarios!$B$9</f>
-        <v>46.851094317586671</v>
+        <v>44.615195771808111</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3996,95 +3996,95 @@
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C4*Scenarios!$B$9</f>
-        <v>40.642684278234334</v>
+        <v>38.703072834833542</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D4*Scenarios!$B$9</f>
-        <v>37.762494053792537</v>
+        <v>35.960335389845334</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E4*Scenarios!$B$9</f>
-        <v>40.642684278234334</v>
+        <v>38.703072834833542</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F4*Scenarios!$B$9</f>
-        <v>40.642684278234334</v>
+        <v>38.703072834833542</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G4*Scenarios!$B$9</f>
-        <v>40.642684278234334</v>
+        <v>38.703072834833542</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H4*Scenarios!$B$9</f>
-        <v>57.475796034416433</v>
+        <v>54.732849457764594</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I4*Scenarios!$B$9</f>
-        <v>40.642684278234334</v>
+        <v>38.703072834833542</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J4*Scenarios!$B$9</f>
-        <v>51.190580922412323</v>
+        <v>48.747586855590342</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K4*Scenarios!$B$9</f>
-        <v>51.216182613296247</v>
+        <v>48.771966743990227</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L4*Scenarios!$B$9</f>
-        <v>51.216182613296247</v>
+        <v>48.771966743990227</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M4*Scenarios!$B$9</f>
-        <v>51.216182613296247</v>
+        <v>48.771966743990227</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N4*Scenarios!$B$9</f>
-        <v>51.190580922412323</v>
+        <v>48.747586855590342</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O4*Scenarios!$B$9</f>
-        <v>51.190580922412323</v>
+        <v>48.747586855590342</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P4*Scenarios!$B$9</f>
-        <v>51.190580922412323</v>
+        <v>48.747586855590342</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q4*Scenarios!$B$9</f>
-        <v>51.190580922412323</v>
+        <v>48.747586855590342</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R4*Scenarios!$B$9</f>
-        <v>51.228983458738213</v>
+        <v>48.78415668819018</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S4*Scenarios!$B$9</f>
-        <v>56.323719944639713</v>
+        <v>53.635754479769311</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T4*Scenarios!$B$9</f>
-        <v>56.323719944639713</v>
+        <v>53.635754479769311</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U4*Scenarios!$B$9</f>
-        <v>56.323719944639713</v>
+        <v>53.635754479769311</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V4*Scenarios!$B$9</f>
-        <v>56.323719944639713</v>
+        <v>53.635754479769311</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W4*Scenarios!$B$9</f>
-        <v>52.470665466608679</v>
+        <v>49.966581275585099</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X4*Scenarios!$B$9</f>
-        <v>40.642684278234334</v>
+        <v>38.703072834833542</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y4*Scenarios!$B$9</f>
-        <v>40.642684278234334</v>
+        <v>38.703072834833542</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4237,99 +4237,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Summer'!B2*Scenarios!$B$6</f>
-        <v>41.169266614075603</v>
+        <v>45.4319220332046</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Summer'!C2*Scenarios!$B$6</f>
-        <v>37.568198485235072</v>
+        <v>41.458000224021688</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Summer'!D2*Scenarios!$B$6</f>
-        <v>35.977542624642936</v>
+        <v>39.702648259229242</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Summer'!E2*Scenarios!$B$6</f>
-        <v>35.325815570650327</v>
+        <v>38.983441551432335</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Summer'!F2*Scenarios!$B$6</f>
-        <v>35.491508889462011</v>
+        <v>39.166290714431547</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Summer'!G2*Scenarios!$B$6</f>
-        <v>40.175106701205515</v>
+        <v>44.33482705520931</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Summer'!H2*Scenarios!$B$6</f>
-        <v>41.876224774338766</v>
+        <v>46.212078462001237</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Summer'!I2*Scenarios!$B$6</f>
-        <v>41.876224774338766</v>
+        <v>46.212078462001237</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Summer'!J2*Scenarios!$B$6</f>
-        <v>44.008145476382403</v>
+        <v>48.56473769259113</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Summer'!K2*Scenarios!$B$6</f>
-        <v>44.118607688923518</v>
+        <v>48.686637134590597</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Summer'!L2*Scenarios!$B$6</f>
-        <v>44.008145476382403</v>
+        <v>48.56473769259113</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Summer'!M2*Scenarios!$B$6</f>
-        <v>44.195931237702297</v>
+        <v>48.771966743990227</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Summer'!N2*Scenarios!$B$6</f>
-        <v>43.566296626217913</v>
+        <v>48.077139924593219</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Summer'!O2*Scenarios!$B$6</f>
-        <v>43.290141094865113</v>
+        <v>47.772391319594526</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Summer'!P2*Scenarios!$B$6</f>
-        <v>42.384350952027923</v>
+        <v>46.772815895198825</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Summer'!Q2*Scenarios!$B$6</f>
-        <v>41.080896844042705</v>
+        <v>45.334402479605011</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Summer'!R2*Scenarios!$B$6</f>
-        <v>38.63968194688394</v>
+        <v>42.640424811416601</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Summer'!S2*Scenarios!$B$6</f>
-        <v>41.279728826616719</v>
+        <v>45.553821475204067</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Summer'!T2*Scenarios!$B$6</f>
-        <v>42.859338465954743</v>
+        <v>47.296983495796574</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Summer'!U2*Scenarios!$B$6</f>
-        <v>44.074422803907069</v>
+        <v>48.637877357790806</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Summer'!V2*Scenarios!$B$6</f>
-        <v>43.124447776053429</v>
+        <v>47.589542156595314</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Summer'!W2*Scenarios!$B$6</f>
-        <v>44.008145476382403</v>
+        <v>48.56473769259113</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Summer'!X2*Scenarios!$B$6</f>
-        <v>43.919775706349498</v>
+        <v>48.467218138991541</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Summer'!Y2*Scenarios!$B$6</f>
-        <v>42.130287863183348</v>
+        <v>46.492447178600038</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4338,99 +4338,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Summer'!B3*Scenarios!$B$6</f>
-        <v>43.831405936316607</v>
+        <v>48.369698585391959</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Summer'!C3*Scenarios!$B$6</f>
-        <v>38.661774389392164</v>
+        <v>42.6648046998165</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Summer'!D3*Scenarios!$B$6</f>
-        <v>42.196565190708021</v>
+        <v>46.565586843799721</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Summer'!E3*Scenarios!$B$6</f>
-        <v>40.760556427673457</v>
+        <v>44.980894097806534</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Summer'!F3*Scenarios!$B$6</f>
-        <v>41.544838136715413</v>
+        <v>45.846380136002814</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Summer'!G3*Scenarios!$B$6</f>
-        <v>42.196565190708021</v>
+        <v>46.565586843799721</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Summer'!H3*Scenarios!$B$6</f>
-        <v>41.10298928655093</v>
+        <v>45.35878236800491</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Summer'!I3*Scenarios!$B$6</f>
-        <v>44.383716999022205</v>
+        <v>48.979195795389337</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Summer'!J3*Scenarios!$B$6</f>
-        <v>47.322011852616015</v>
+        <v>52.221720952575396</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Summer'!K3*Scenarios!$B$6</f>
-        <v>47.531890056444141</v>
+        <v>52.453329892374398</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Summer'!L3*Scenarios!$B$6</f>
-        <v>47.995831349116848</v>
+        <v>52.965307548772202</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Summer'!M3*Scenarios!$B$6</f>
-        <v>48.901621491954039</v>
+        <v>53.964882973167903</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Summer'!N3*Scenarios!$B$6</f>
-        <v>49.674856979741875</v>
+        <v>54.818179067164223</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Summer'!O3*Scenarios!$B$6</f>
-        <v>50.967264866472988</v>
+        <v>56.244402538558091</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Summer'!P3*Scenarios!$B$6</f>
-        <v>49.034176147003379</v>
+        <v>54.111162303567269</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Summer'!Q3*Scenarios!$B$6</f>
-        <v>47.509797613935916</v>
+        <v>52.428950003974499</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Summer'!R3*Scenarios!$B$6</f>
-        <v>47.344104295124232</v>
+        <v>52.246100840975288</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Summer'!S3*Scenarios!$B$6</f>
-        <v>48.305125544231977</v>
+        <v>53.306625986370726</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Summer'!T3*Scenarios!$B$6</f>
-        <v>48.570234854330671</v>
+        <v>53.599184647169466</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Summer'!U3*Scenarios!$B$6</f>
-        <v>49.59753343096309</v>
+        <v>54.732849457764594</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Summer'!V3*Scenarios!$B$6</f>
-        <v>50.205075599939256</v>
+        <v>55.403296388761717</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Summer'!W3*Scenarios!$B$6</f>
-        <v>50.9783110877271</v>
+        <v>56.256592482758037</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Summer'!X3*Scenarios!$B$6</f>
-        <v>49.674856979741875</v>
+        <v>54.818179067164223</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Summer'!Y3*Scenarios!$B$6</f>
-        <v>46.946440329976198</v>
+        <v>51.807262849777175</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4439,99 +4439,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Summer'!B4*Scenarios!$B$6</f>
-        <v>36.883332767480127</v>
+        <v>40.702223683624943</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Summer'!C4*Scenarios!$B$6</f>
-        <v>34.044453905173327</v>
+        <v>37.569408024238413</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Summer'!D4*Scenarios!$B$6</f>
-        <v>31.912533203129705</v>
+        <v>35.216748793648534</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Summer'!E4*Scenarios!$B$6</f>
-        <v>31.404407025440552</v>
+        <v>34.656011360450947</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Summer'!F4*Scenarios!$B$6</f>
-        <v>32.486936708343535</v>
+        <v>35.850625892045805</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Summer'!G4*Scenarios!$B$6</f>
-        <v>37.987954892891331</v>
+        <v>41.921218103619701</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Summer'!H4*Scenarios!$B$6</f>
-        <v>49.973104953602906</v>
+        <v>55.147307560562815</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Summer'!I4*Scenarios!$B$6</f>
-        <v>47.410381622648913</v>
+        <v>52.319240506174978</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Summer'!J4*Scenarios!$B$6</f>
-        <v>49.575440988454872</v>
+        <v>54.708469569364702</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Summer'!K4*Scenarios!$B$6</f>
-        <v>48.934760155716369</v>
+        <v>54.001452805767734</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Summer'!L4*Scenarios!$B$6</f>
-        <v>45.355784469384069</v>
+        <v>50.051910884984729</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Summer'!M4*Scenarios!$B$6</f>
-        <v>44.074422803907069</v>
+        <v>48.637877357790806</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Summer'!N4*Scenarios!$B$6</f>
-        <v>48.802205500667029</v>
+        <v>53.855173475368368</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Summer'!O4*Scenarios!$B$6</f>
-        <v>49.906827626078233</v>
+        <v>55.074167895363125</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Summer'!P4*Scenarios!$B$6</f>
-        <v>49.575440988454872</v>
+        <v>54.708469569364702</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Summer'!Q4*Scenarios!$B$6</f>
-        <v>48.98999126198693</v>
+        <v>54.062402526767478</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Summer'!R4*Scenarios!$B$6</f>
-        <v>48.98999126198693</v>
+        <v>54.062402526767478</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Summer'!S4*Scenarios!$B$6</f>
-        <v>49.575440988454872</v>
+        <v>54.708469569364702</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Summer'!T4*Scenarios!$B$6</f>
-        <v>51.011449751489437</v>
+        <v>56.293162315357883</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Summer'!U4*Scenarios!$B$6</f>
-        <v>52.889307364688484</v>
+        <v>58.365452829348975</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Summer'!V4*Scenarios!$B$6</f>
-        <v>56.534560378545457</v>
+        <v>62.38813441533167</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Summer'!W4*Scenarios!$B$6</f>
-        <v>61.516406164149991</v>
+        <v>67.885799249508025</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Summer'!X4*Scenarios!$B$6</f>
-        <v>56.081665307126869</v>
+        <v>61.88834670313382</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Summer'!Y4*Scenarios!$B$6</f>
-        <v>49.707995643504212</v>
+        <v>54.854748899764068</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4685,99 +4685,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Summer'!B2*Scenarios!$B$7</f>
-        <v>10.227875508128893</v>
+        <v>9.7397654157581091</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Summer'!C2*Scenarios!$B$7</f>
-        <v>10.227875508128893</v>
+        <v>9.7397654157581091</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Summer'!D2*Scenarios!$B$7</f>
-        <v>10.227875508128893</v>
+        <v>9.7397654157581091</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Summer'!E2*Scenarios!$B$7</f>
-        <v>13.261675877874259</v>
+        <v>12.628782191145683</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Summer'!F2*Scenarios!$B$7</f>
-        <v>12.4040192332627</v>
+        <v>11.812055929749196</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Summer'!G2*Scenarios!$B$7</f>
-        <v>11.367150752463653</v>
+        <v>10.824670449553444</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Summer'!H2*Scenarios!$B$7</f>
-        <v>10.355883962548528</v>
+        <v>9.8616648577575852</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Summer'!I2*Scenarios!$B$7</f>
-        <v>8.9477909639325368</v>
+        <v>8.5207709957633533</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Summer'!J2*Scenarios!$B$7</f>
-        <v>3.4434274238882003</v>
+        <v>3.2790949897858965</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Summer'!K2*Scenarios!$B$7</f>
-        <v>5.7475796034416433</v>
+        <v>5.4732849457764594</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Summer'!L2*Scenarios!$B$7</f>
-        <v>8.307748691834357</v>
+        <v>7.9112737857659736</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Summer'!M2*Scenarios!$B$7</f>
-        <v>9.9078543720798038</v>
+        <v>9.4350168107594197</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Summer'!N2*Scenarios!$B$7</f>
-        <v>9.7926467631021321</v>
+        <v>9.3253073129598931</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Summer'!O2*Scenarios!$B$7</f>
-        <v>10.739909325807437</v>
+        <v>10.227363183756013</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Summer'!P2*Scenarios!$B$7</f>
-        <v>12.148002324423429</v>
+        <v>11.568257045750245</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q2*Scenarios!$B$7</f>
-        <v>10.650303407713691</v>
+        <v>10.142033574356379</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Summer'!R2*Scenarios!$B$7</f>
-        <v>9.7926467631021321</v>
+        <v>9.3253073129598931</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Summer'!S2*Scenarios!$B$7</f>
-        <v>8.1541385465307954</v>
+        <v>7.7649944553666028</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Summer'!T2*Scenarios!$B$7</f>
-        <v>8.307748691834357</v>
+        <v>7.9112737857659736</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Summer'!U2*Scenarios!$B$7</f>
-        <v>8.307748691834357</v>
+        <v>7.9112737857659736</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Summer'!V2*Scenarios!$B$7</f>
-        <v>9.8950535266378417</v>
+        <v>9.4228268665594737</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Summer'!W2*Scenarios!$B$7</f>
-        <v>10.957523698320818</v>
+        <v>10.434592235155121</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Summer'!X2*Scenarios!$B$7</f>
-        <v>8.9477909639325368</v>
+        <v>8.5207709957633533</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y2*Scenarios!$B$7</f>
-        <v>10.099867053709257</v>
+        <v>9.6178659737586329</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4786,99 +4786,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Secondary Reserve, Summer'!B3*Scenarios!$B$7</f>
-        <v>10.240676353570857</v>
+        <v>9.7519553599580568</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Secondary Reserve, Summer'!C3*Scenarios!$B$7</f>
-        <v>10.227875508128893</v>
+        <v>9.7397654157581091</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Secondary Reserve, Summer'!D3*Scenarios!$B$7</f>
-        <v>9.9334560629637298</v>
+        <v>9.4593966991593152</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Secondary Reserve, Summer'!E3*Scenarios!$B$7</f>
-        <v>10.240676353570857</v>
+        <v>9.7519553599580568</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Secondary Reserve, Summer'!F3*Scenarios!$B$7</f>
-        <v>14.080929986159928</v>
+        <v>13.408938619942328</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Secondary Reserve, Summer'!G3*Scenarios!$B$7</f>
-        <v>10.919121161994925</v>
+        <v>10.398022402555277</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Secondary Reserve, Summer'!H3*Scenarios!$B$7</f>
-        <v>8.243744464624541</v>
+        <v>7.8503240647662365</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Secondary Reserve, Summer'!I3*Scenarios!$B$7</f>
-        <v>6.0291982031648415</v>
+        <v>5.7414637181753063</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Secondary Reserve, Summer'!J3*Scenarios!$B$7</f>
-        <v>5.9779948213969876</v>
+        <v>5.6927039413755152</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Secondary Reserve, Summer'!K3*Scenarios!$B$7</f>
-        <v>7.2452785201513814</v>
+        <v>6.8995084171703258</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Secondary Reserve, Summer'!L3*Scenarios!$B$7</f>
-        <v>6.1316049667005501</v>
+        <v>5.8389832717748869</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Secondary Reserve, Summer'!M3*Scenarios!$B$7</f>
-        <v>6.5028294845174939</v>
+        <v>6.1924916535733665</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Secondary Reserve, Summer'!N3*Scenarios!$B$7</f>
-        <v>5.209944094879174</v>
+        <v>4.9613072893786621</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Secondary Reserve, Summer'!O3*Scenarios!$B$7</f>
-        <v>5.6835753762318264</v>
+        <v>5.4123352247767222</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Secondary Reserve, Summer'!P3*Scenarios!$B$7</f>
-        <v>6.7460455479148012</v>
+        <v>6.4241005933723692</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q3*Scenarios!$B$7</f>
-        <v>5.9267914396291328</v>
+        <v>5.6439441645757249</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Secondary Reserve, Summer'!R3*Scenarios!$B$7</f>
-        <v>5.6451728399059347</v>
+        <v>5.3757653921768789</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Secondary Reserve, Summer'!S3*Scenarios!$B$7</f>
-        <v>4.4674950592452864</v>
+        <v>4.2542905257817027</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Secondary Reserve, Summer'!T3*Scenarios!$B$7</f>
-        <v>5.6835753762318264</v>
+        <v>5.4123352247767222</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Secondary Reserve, Summer'!U3*Scenarios!$B$7</f>
-        <v>2.944194451651621</v>
+        <v>2.8036871659879412</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Secondary Reserve, Summer'!V3*Scenarios!$B$7</f>
-        <v>6.3620201846558944</v>
+        <v>6.0584022673739426</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Secondary Reserve, Summer'!W3*Scenarios!$B$7</f>
-        <v>10.97032454376278</v>
+        <v>10.446782179355068</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Secondary Reserve, Summer'!X3*Scenarios!$B$7</f>
-        <v>10.560697489619946</v>
+        <v>10.056703964956746</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y3*Scenarios!$B$7</f>
-        <v>8.7429774368611195</v>
+        <v>8.3257318885641904</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4887,99 +4887,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Secondary Reserve, Summer'!B4*Scenarios!$B$7</f>
-        <v>16.026658493338392</v>
+        <v>15.261810138334358</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Secondary Reserve, Summer'!C4*Scenarios!$B$7</f>
-        <v>16.372281320271405</v>
+        <v>15.590938631732943</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Secondary Reserve, Summer'!D4*Scenarios!$B$7</f>
-        <v>15.629832284637521</v>
+        <v>14.883921868135985</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Secondary Reserve, Summer'!E4*Scenarios!$B$7</f>
-        <v>12.22480739707521</v>
+        <v>11.64139671094993</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Secondary Reserve, Summer'!F4*Scenarios!$B$7</f>
-        <v>6.0932024303746593</v>
+        <v>5.8024134391750435</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Secondary Reserve, Summer'!G4*Scenarios!$B$7</f>
-        <v>5.4531601582764813</v>
+        <v>5.1929162291776647</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Secondary Reserve, Summer'!H4*Scenarios!$B$7</f>
-        <v>6.0804015849326962</v>
+        <v>5.7902234949750966</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Secondary Reserve, Summer'!I4*Scenarios!$B$7</f>
-        <v>5.9011897487452067</v>
+        <v>5.6195642761758302</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Secondary Reserve, Summer'!J4*Scenarios!$B$7</f>
-        <v>4.5314992864551042</v>
+        <v>4.3152402467814399</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Secondary Reserve, Summer'!K4*Scenarios!$B$7</f>
-        <v>4.7235119680845576</v>
+        <v>4.4980894097806541</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Secondary Reserve, Summer'!L4*Scenarios!$B$7</f>
-        <v>4.7875161952943754</v>
+        <v>4.5590391307803921</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Secondary Reserve, Summer'!M4*Scenarios!$B$7</f>
-        <v>3.9554612415667432</v>
+        <v>3.7666927577837992</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Secondary Reserve, Summer'!N4*Scenarios!$B$7</f>
-        <v>4.3906899865935047</v>
+        <v>4.1811508605820169</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Secondary Reserve, Summer'!O4*Scenarios!$B$7</f>
-        <v>4.6339060499908129</v>
+        <v>4.4127598003810204</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Secondary Reserve, Summer'!P4*Scenarios!$B$7</f>
-        <v>4.6339060499908129</v>
+        <v>4.4127598003810204</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q4*Scenarios!$B$7</f>
-        <v>4.1986773049640513</v>
+        <v>3.9983016975828032</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Secondary Reserve, Summer'!R4*Scenarios!$B$7</f>
-        <v>2.2913513341114791</v>
+        <v>2.1820000117906151</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Secondary Reserve, Summer'!S4*Scenarios!$B$7</f>
-        <v>2.2913513341114791</v>
+        <v>2.1820000117906151</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Secondary Reserve, Summer'!T4*Scenarios!$B$7</f>
-        <v>1.8817242799686449</v>
+        <v>1.791921797392293</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Secondary Reserve, Summer'!U4*Scenarios!$B$7</f>
-        <v>2.8545885335578762</v>
+        <v>2.7183575565883085</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Secondary Reserve, Summer'!V4*Scenarios!$B$7</f>
-        <v>2.777783460906095</v>
+        <v>2.6452178913886226</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Secondary Reserve, Summer'!W4*Scenarios!$B$7</f>
-        <v>5.8883889033032419</v>
+        <v>5.6073743319758824</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Secondary Reserve, Summer'!X4*Scenarios!$B$7</f>
-        <v>8.0773334738790119</v>
+        <v>7.691854790166917</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y4*Scenarios!$B$7</f>
-        <v>9.4726256270530431</v>
+        <v>9.0205587079612037</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5158,99 +5158,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B2*Scenarios!$B$8</f>
-        <v>59.280715241733297</v>
+        <v>56.451631589957202</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C2*Scenarios!$B$8</f>
-        <v>59.280715241733297</v>
+        <v>56.451631589957202</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D2*Scenarios!$B$8</f>
-        <v>59.280715241733297</v>
+        <v>56.451631589957202</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E2*Scenarios!$B$8</f>
-        <v>82.74466493685253</v>
+        <v>78.795799308461099</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F2*Scenarios!$B$8</f>
-        <v>61.840884330126016</v>
+        <v>58.889620429946717</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G2*Scenarios!$B$8</f>
-        <v>53.763550856247001</v>
+        <v>51.197765639779796</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H2*Scenarios!$B$8</f>
-        <v>61.840884330126016</v>
+        <v>58.889620429946717</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I2*Scenarios!$B$8</f>
-        <v>53.763550856247001</v>
+        <v>51.197765639779796</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J2*Scenarios!$B$8</f>
-        <v>53.763550856247001</v>
+        <v>51.197765639779796</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K2*Scenarios!$B$8</f>
-        <v>55.043635400443357</v>
+        <v>52.416760059774553</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L2*Scenarios!$B$8</f>
-        <v>55.043635400443357</v>
+        <v>52.416760059774553</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M2*Scenarios!$B$8</f>
-        <v>55.043635400443357</v>
+        <v>52.416760059774553</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N2*Scenarios!$B$8</f>
-        <v>126.72836987543936</v>
+        <v>120.68044757948095</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O2*Scenarios!$B$8</f>
-        <v>126.72836987543936</v>
+        <v>120.68044757948095</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P2*Scenarios!$B$8</f>
-        <v>55.043635400443357</v>
+        <v>52.416760059774553</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q2*Scenarios!$B$8</f>
-        <v>55.043635400443357</v>
+        <v>52.416760059774553</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R2*Scenarios!$B$8</f>
-        <v>55.043635400443357</v>
+        <v>52.416760059774553</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S2*Scenarios!$B$8</f>
-        <v>55.043635400443357</v>
+        <v>52.416760059774553</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T2*Scenarios!$B$8</f>
-        <v>55.043635400443357</v>
+        <v>52.416760059774553</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U2*Scenarios!$B$8</f>
-        <v>55.043635400443357</v>
+        <v>52.416760059774553</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V2*Scenarios!$B$8</f>
-        <v>55.043635400443357</v>
+        <v>52.416760059774553</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W2*Scenarios!$B$8</f>
-        <v>61.840884330126016</v>
+        <v>58.889620429946717</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X2*Scenarios!$B$8</f>
-        <v>45.314992864551037</v>
+        <v>43.152402467814397</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y2*Scenarios!$B$8</f>
-        <v>45.314992864551037</v>
+        <v>43.152402467814397</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5259,99 +5259,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B3*Scenarios!$B$8</f>
-        <v>63.837816219072323</v>
+        <v>60.791251725138537</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C3*Scenarios!$B$8</f>
-        <v>63.837816219072323</v>
+        <v>60.791251725138537</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D3*Scenarios!$B$8</f>
-        <v>63.837816219072323</v>
+        <v>60.791251725138537</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E3*Scenarios!$B$8</f>
-        <v>63.837816219072323</v>
+        <v>60.791251725138537</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F3*Scenarios!$B$8</f>
-        <v>63.837816219072323</v>
+        <v>60.791251725138537</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G3*Scenarios!$B$8</f>
-        <v>63.837816219072323</v>
+        <v>60.791251725138537</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H3*Scenarios!$B$8</f>
-        <v>51.331390222273924</v>
+        <v>48.881676241789762</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I3*Scenarios!$B$8</f>
-        <v>50.435331041336468</v>
+        <v>48.028380147793428</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J3*Scenarios!$B$8</f>
-        <v>50.435331041336468</v>
+        <v>48.028380147793428</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K3*Scenarios!$B$8</f>
-        <v>121.60803169865392</v>
+        <v>115.80446989950192</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L3*Scenarios!$B$8</f>
-        <v>51.331390222273924</v>
+        <v>48.881676241789762</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M3*Scenarios!$B$8</f>
-        <v>51.331390222273924</v>
+        <v>48.881676241789762</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N3*Scenarios!$B$8</f>
-        <v>51.331390222273924</v>
+        <v>48.881676241789762</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O3*Scenarios!$B$8</f>
-        <v>51.331390222273924</v>
+        <v>48.881676241789762</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P3*Scenarios!$B$8</f>
-        <v>63.837816219072323</v>
+        <v>60.791251725138537</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q3*Scenarios!$B$8</f>
-        <v>51.203381767854282</v>
+        <v>48.759776799790288</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R3*Scenarios!$B$8</f>
-        <v>50.435331041336468</v>
+        <v>48.028380147793428</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S3*Scenarios!$B$8</f>
-        <v>51.203381767854282</v>
+        <v>48.759776799790288</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T3*Scenarios!$B$8</f>
-        <v>50.435331041336468</v>
+        <v>48.028380147793428</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U3*Scenarios!$B$8</f>
-        <v>63.837816219072323</v>
+        <v>60.791251725138537</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V3*Scenarios!$B$8</f>
-        <v>50.435331041336468</v>
+        <v>48.028380147793428</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W3*Scenarios!$B$8</f>
-        <v>63.837816219072323</v>
+        <v>60.791251725138537</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X3*Scenarios!$B$8</f>
-        <v>47.875161952943756</v>
+        <v>45.590391307803912</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y3*Scenarios!$B$8</f>
-        <v>47.875161952943756</v>
+        <v>45.590391307803912</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5360,99 +5360,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B4*Scenarios!$B$8</f>
-        <v>38.760959998265697</v>
+        <v>36.911151037441243</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C4*Scenarios!$B$8</f>
-        <v>40.041044542462053</v>
+        <v>38.130145457436001</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D4*Scenarios!$B$8</f>
-        <v>40.041044542462053</v>
+        <v>38.130145457436001</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E4*Scenarios!$B$8</f>
-        <v>50.435331041336468</v>
+        <v>48.028380147793428</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F4*Scenarios!$B$8</f>
-        <v>46.083043591068858</v>
+        <v>43.883799119811258</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G4*Scenarios!$B$8</f>
-        <v>88.377036931316496</v>
+        <v>84.159374756438041</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H4*Scenarios!$B$8</f>
-        <v>88.377036931316496</v>
+        <v>84.159374756438041</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I4*Scenarios!$B$8</f>
-        <v>50.435331041336468</v>
+        <v>48.028380147793428</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J4*Scenarios!$B$8</f>
-        <v>51.203381767854282</v>
+        <v>48.759776799790288</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K4*Scenarios!$B$8</f>
-        <v>50.435331041336468</v>
+        <v>48.028380147793428</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L4*Scenarios!$B$8</f>
-        <v>50.435331041336468</v>
+        <v>48.028380147793428</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M4*Scenarios!$B$8</f>
-        <v>50.435331041336468</v>
+        <v>48.028380147793428</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N4*Scenarios!$B$8</f>
-        <v>50.435331041336468</v>
+        <v>48.028380147793428</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O4*Scenarios!$B$8</f>
-        <v>50.435331041336468</v>
+        <v>48.028380147793428</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P4*Scenarios!$B$8</f>
-        <v>50.435331041336468</v>
+        <v>48.028380147793428</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q4*Scenarios!$B$8</f>
-        <v>50.435331041336468</v>
+        <v>48.028380147793428</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R4*Scenarios!$B$8</f>
-        <v>51.203381767854282</v>
+        <v>48.759776799790288</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S4*Scenarios!$B$8</f>
-        <v>51.45939867669356</v>
+        <v>49.003575683789236</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T4*Scenarios!$B$8</f>
-        <v>51.45939867669356</v>
+        <v>49.003575683789236</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U4*Scenarios!$B$8</f>
-        <v>50.435331041336468</v>
+        <v>48.028380147793428</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V4*Scenarios!$B$8</f>
-        <v>50.435331041336468</v>
+        <v>48.028380147793428</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W4*Scenarios!$B$8</f>
-        <v>50.435331041336468</v>
+        <v>48.028380147793428</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X4*Scenarios!$B$8</f>
-        <v>51.203381767854282</v>
+        <v>48.759776799790288</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y4*Scenarios!$B$8</f>
-        <v>51.203381767854282</v>
+        <v>48.759776799790288</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5605,99 +5605,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B2*Scenarios!$B$9</f>
-        <v>30.837236669690242</v>
+        <v>29.365575577673699</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C2*Scenarios!$B$9</f>
-        <v>30.837236669690242</v>
+        <v>29.365575577673699</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D2*Scenarios!$B$9</f>
-        <v>30.837236669690242</v>
+        <v>29.365575577673699</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E2*Scenarios!$B$9</f>
-        <v>30.837236669690242</v>
+        <v>29.365575577673699</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F2*Scenarios!$B$9</f>
-        <v>37.173655163462207</v>
+        <v>35.399597956647746</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G2*Scenarios!$B$9</f>
-        <v>37.160854318020249</v>
+        <v>35.3874080124478</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H2*Scenarios!$B$9</f>
-        <v>37.186456008904173</v>
+        <v>35.411787900847692</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I2*Scenarios!$B$9</f>
-        <v>37.173655163462207</v>
+        <v>35.399597956647746</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J2*Scenarios!$B$9</f>
-        <v>37.173655163462207</v>
+        <v>35.399597956647746</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K2*Scenarios!$B$9</f>
-        <v>37.186456008904173</v>
+        <v>35.411787900847692</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L2*Scenarios!$B$9</f>
-        <v>40.962705414283427</v>
+        <v>39.007821439832227</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M2*Scenarios!$B$9</f>
-        <v>37.160854318020249</v>
+        <v>35.3874080124478</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N2*Scenarios!$B$9</f>
-        <v>37.160854318020249</v>
+        <v>35.3874080124478</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O2*Scenarios!$B$9</f>
-        <v>37.160854318020249</v>
+        <v>35.3874080124478</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P2*Scenarios!$B$9</f>
-        <v>40.962705414283427</v>
+        <v>39.007821439832227</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q2*Scenarios!$B$9</f>
-        <v>37.135252627136325</v>
+        <v>35.363028124047908</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R2*Scenarios!$B$9</f>
-        <v>40.962705414283427</v>
+        <v>39.007821439832227</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S2*Scenarios!$B$9</f>
-        <v>37.135252627136325</v>
+        <v>35.363028124047908</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T2*Scenarios!$B$9</f>
-        <v>37.135252627136325</v>
+        <v>35.363028124047908</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U2*Scenarios!$B$9</f>
-        <v>37.135252627136325</v>
+        <v>35.363028124047908</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V2*Scenarios!$B$9</f>
-        <v>37.135252627136325</v>
+        <v>35.363028124047908</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W2*Scenarios!$B$9</f>
-        <v>37.135252627136325</v>
+        <v>35.363028124047908</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X2*Scenarios!$B$9</f>
-        <v>37.135252627136325</v>
+        <v>35.363028124047908</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y2*Scenarios!$B$9</f>
-        <v>35.816765546614072</v>
+        <v>34.107463871453305</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5706,99 +5706,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B3*Scenarios!$B$9</f>
-        <v>50.435331041336468</v>
+        <v>48.028380147793428</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C3*Scenarios!$B$9</f>
-        <v>50.435331041336468</v>
+        <v>48.028380147793428</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D3*Scenarios!$B$9</f>
-        <v>50.435331041336468</v>
+        <v>48.028380147793428</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E3*Scenarios!$B$9</f>
-        <v>50.435331041336468</v>
+        <v>48.028380147793428</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F3*Scenarios!$B$9</f>
-        <v>50.435331041336468</v>
+        <v>48.028380147793428</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G3*Scenarios!$B$9</f>
-        <v>9.0373968820262807</v>
+        <v>8.6061006051629843</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H3*Scenarios!$B$9</f>
-        <v>38.364133789564818</v>
+        <v>36.533262767242867</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I3*Scenarios!$B$9</f>
-        <v>26.30573738323514</v>
+        <v>25.05033533089226</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J3*Scenarios!$B$9</f>
-        <v>26.30573738323514</v>
+        <v>25.05033533089226</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K3*Scenarios!$B$9</f>
-        <v>46.915098544796486</v>
+        <v>44.676145492807848</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L3*Scenarios!$B$9</f>
-        <v>46.915098544796486</v>
+        <v>44.676145492807848</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M3*Scenarios!$B$9</f>
-        <v>46.915098544796486</v>
+        <v>44.676145492807848</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N3*Scenarios!$B$9</f>
-        <v>38.364133789564818</v>
+        <v>36.533262767242867</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O3*Scenarios!$B$9</f>
-        <v>38.364133789564818</v>
+        <v>36.533262767242867</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P3*Scenarios!$B$9</f>
-        <v>38.364133789564818</v>
+        <v>36.533262767242867</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q3*Scenarios!$B$9</f>
-        <v>46.915098544796486</v>
+        <v>44.676145492807848</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R3*Scenarios!$B$9</f>
-        <v>46.915098544796486</v>
+        <v>44.676145492807848</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S3*Scenarios!$B$9</f>
-        <v>46.915098544796486</v>
+        <v>44.676145492807848</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T3*Scenarios!$B$9</f>
-        <v>46.915098544796486</v>
+        <v>44.676145492807848</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U3*Scenarios!$B$9</f>
-        <v>46.915098544796486</v>
+        <v>44.676145492807848</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V3*Scenarios!$B$9</f>
-        <v>46.915098544796486</v>
+        <v>44.676145492807848</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W3*Scenarios!$B$9</f>
-        <v>38.364133789564818</v>
+        <v>36.533262767242867</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X3*Scenarios!$B$9</f>
-        <v>33.525414212502596</v>
+        <v>31.925463859662692</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y3*Scenarios!$B$9</f>
-        <v>33.525414212502596</v>
+        <v>31.925463859662692</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5807,99 +5807,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B4*Scenarios!$B$9</f>
-        <v>2.8417876881159132</v>
+        <v>2.7061676123883611</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C4*Scenarios!$B$9</f>
-        <v>2.8161859972319858</v>
+        <v>2.681787723988466</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D4*Scenarios!$B$9</f>
-        <v>2.8417876881159132</v>
+        <v>2.7061676123883611</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E4*Scenarios!$B$9</f>
-        <v>2.8417876881159132</v>
+        <v>2.7061676123883611</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F4*Scenarios!$B$9</f>
-        <v>48.01597125280535</v>
+        <v>45.72448069400334</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G4*Scenarios!$B$9</f>
-        <v>48.028772098247323</v>
+        <v>45.736670638203293</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H4*Scenarios!$B$9</f>
-        <v>48.028772098247323</v>
+        <v>45.736670638203293</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I4*Scenarios!$B$9</f>
-        <v>25.627292574811069</v>
+        <v>24.404268288295036</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J4*Scenarios!$B$9</f>
-        <v>33.282198149105284</v>
+        <v>31.693854919863686</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K4*Scenarios!$B$9</f>
-        <v>48.01597125280535</v>
+        <v>45.72448069400334</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L4*Scenarios!$B$9</f>
-        <v>48.01597125280535</v>
+        <v>45.72448069400334</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M4*Scenarios!$B$9</f>
-        <v>48.515204225041934</v>
+        <v>46.199888517801291</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N4*Scenarios!$B$9</f>
-        <v>48.515204225041934</v>
+        <v>46.199888517801291</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O4*Scenarios!$B$9</f>
-        <v>48.515204225041934</v>
+        <v>46.199888517801291</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P4*Scenarios!$B$9</f>
-        <v>48.01597125280535</v>
+        <v>45.72448069400334</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q4*Scenarios!$B$9</f>
-        <v>48.01597125280535</v>
+        <v>45.72448069400334</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R4*Scenarios!$B$9</f>
-        <v>32.859770249520487</v>
+        <v>31.291586761265417</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S4*Scenarios!$B$9</f>
-        <v>48.01597125280535</v>
+        <v>45.72448069400334</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T4*Scenarios!$B$9</f>
-        <v>48.01597125280535</v>
+        <v>45.72448069400334</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U4*Scenarios!$B$9</f>
-        <v>48.01597125280535</v>
+        <v>45.72448069400334</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V4*Scenarios!$B$9</f>
-        <v>48.01597125280535</v>
+        <v>45.72448069400334</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W4*Scenarios!$B$9</f>
-        <v>48.01597125280535</v>
+        <v>45.72448069400334</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X4*Scenarios!$B$9</f>
-        <v>38.64575238928802</v>
+        <v>36.801441539641722</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y4*Scenarios!$B$9</f>
-        <v>38.64575238928802</v>
+        <v>36.801441539641722</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/CS1/Market Data/CS1_market_data_2030.xlsx
+++ b/data/CS1/Market Data/CS1_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A306119-5AA3-44B4-B0E9-B74ABC91158E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3AD34D-DAEC-428B-8E75-065BAA059690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,150 +180,150 @@
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
-            <v>35.04</v>
+            <v>43.71</v>
           </cell>
           <cell r="C2">
-            <v>34.020000000000003</v>
+            <v>40.784999999999997</v>
           </cell>
           <cell r="D2">
-            <v>30</v>
+            <v>39.052499999999995</v>
           </cell>
           <cell r="E2">
-            <v>30.03</v>
+            <v>36.622500000000002</v>
           </cell>
           <cell r="F2">
-            <v>33.590000000000003</v>
+            <v>37.715000000000003</v>
           </cell>
           <cell r="G2">
-            <v>33.35</v>
+            <v>40.745000000000005</v>
           </cell>
           <cell r="H2">
-            <v>34.01</v>
+            <v>49.295000000000002</v>
           </cell>
           <cell r="I2">
-            <v>35.33</v>
+            <v>51.59</v>
           </cell>
           <cell r="J2">
-            <v>36.94</v>
+            <v>54.25</v>
           </cell>
           <cell r="K2">
-            <v>38.74</v>
+            <v>53.837499999999999</v>
           </cell>
           <cell r="L2">
-            <v>36.6</v>
+            <v>52.800000000000004</v>
           </cell>
           <cell r="M2">
-            <v>34.19</v>
+            <v>52.542499999999997</v>
           </cell>
           <cell r="N2">
-            <v>34</v>
+            <v>50.507499999999993</v>
           </cell>
           <cell r="O2">
-            <v>34</v>
+            <v>49.795000000000002</v>
           </cell>
           <cell r="P2">
-            <v>30</v>
+            <v>48.817500000000003</v>
           </cell>
           <cell r="Q2">
-            <v>28.8</v>
+            <v>48.914999999999999</v>
           </cell>
           <cell r="R2">
-            <v>29.9</v>
+            <v>49.67</v>
           </cell>
           <cell r="S2">
-            <v>38.25</v>
+            <v>52.125</v>
           </cell>
           <cell r="T2">
-            <v>39.950000000000003</v>
+            <v>54.620000000000005</v>
           </cell>
           <cell r="U2">
-            <v>41.45</v>
+            <v>55.040000000000006</v>
           </cell>
           <cell r="V2">
-            <v>44.83</v>
+            <v>53.769999999999996</v>
           </cell>
           <cell r="W2">
-            <v>44.82</v>
+            <v>50.392499999999998</v>
           </cell>
           <cell r="X2">
-            <v>40.9</v>
+            <v>45.482500000000002</v>
           </cell>
           <cell r="Y2">
-            <v>39.75</v>
+            <v>42.69</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>30.25</v>
+            <v>40.82</v>
           </cell>
           <cell r="C3">
-            <v>26.85</v>
+            <v>38.53</v>
           </cell>
           <cell r="D3">
-            <v>22.25</v>
+            <v>36.034999999999997</v>
           </cell>
           <cell r="E3">
-            <v>18.09</v>
+            <v>34.424999999999997</v>
           </cell>
           <cell r="F3">
-            <v>10</v>
+            <v>36.340000000000003</v>
           </cell>
           <cell r="G3">
-            <v>8</v>
+            <v>38.28</v>
           </cell>
           <cell r="H3">
-            <v>8.41</v>
+            <v>44.2</v>
           </cell>
           <cell r="I3">
-            <v>8.41</v>
+            <v>46.17</v>
           </cell>
           <cell r="J3">
-            <v>10.8</v>
+            <v>48.480000000000004</v>
           </cell>
           <cell r="K3">
-            <v>16.989999999999998</v>
+            <v>48.805</v>
           </cell>
           <cell r="L3">
-            <v>19.54</v>
+            <v>47.400000000000006</v>
           </cell>
           <cell r="M3">
-            <v>17.920000000000002</v>
+            <v>46.424999999999997</v>
           </cell>
           <cell r="N3">
-            <v>22.75</v>
+            <v>45.004999999999995</v>
           </cell>
           <cell r="O3">
-            <v>20</v>
+            <v>44.53</v>
           </cell>
           <cell r="P3">
-            <v>21.57</v>
+            <v>42.545000000000002</v>
           </cell>
           <cell r="Q3">
-            <v>19.399999999999999</v>
+            <v>42.21</v>
           </cell>
           <cell r="R3">
-            <v>23.8</v>
+            <v>43.08</v>
           </cell>
           <cell r="S3">
-            <v>29.3</v>
+            <v>47.5</v>
           </cell>
           <cell r="T3">
-            <v>35.270000000000003</v>
+            <v>49.730000000000004</v>
           </cell>
           <cell r="U3">
-            <v>41</v>
+            <v>50.510000000000005</v>
           </cell>
           <cell r="V3">
-            <v>43.02</v>
+            <v>50.79</v>
           </cell>
           <cell r="W3">
-            <v>43</v>
+            <v>48.534999999999997</v>
           </cell>
           <cell r="X3">
-            <v>41.37</v>
+            <v>43.954999999999998</v>
           </cell>
           <cell r="Y3">
-            <v>41.35</v>
+            <v>41.71</v>
           </cell>
         </row>
         <row r="4">
@@ -404,224 +404,224 @@
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
-            <v>2.68</v>
+            <v>25.342275000000001</v>
           </cell>
           <cell r="C2">
-            <v>3.23</v>
+            <v>24.594854999999999</v>
           </cell>
           <cell r="D2">
-            <v>7.6</v>
+            <v>27.759217499999998</v>
           </cell>
           <cell r="E2">
-            <v>4.3600000000000003</v>
+            <v>30.54975</v>
           </cell>
           <cell r="F2">
-            <v>4.41</v>
+            <v>32.125005000000002</v>
           </cell>
           <cell r="G2">
-            <v>5.98</v>
+            <v>29.361535</v>
           </cell>
           <cell r="H2">
-            <v>5.19</v>
+            <v>27.199200000000001</v>
           </cell>
           <cell r="I2">
-            <v>6.08</v>
+            <v>29.454137500000002</v>
           </cell>
           <cell r="J2">
-            <v>4.68</v>
+            <v>25.75685</v>
           </cell>
           <cell r="K2">
-            <v>4.45</v>
+            <v>23.352209999999999</v>
           </cell>
           <cell r="L2">
-            <v>6.58</v>
+            <v>22.9788</v>
           </cell>
           <cell r="M2">
-            <v>9.39</v>
+            <v>20.269462499999999</v>
           </cell>
           <cell r="N2">
-            <v>9.75</v>
+            <v>22.549799999999994</v>
           </cell>
           <cell r="O2">
-            <v>10.65</v>
+            <v>18.743400000000001</v>
           </cell>
           <cell r="P2">
-            <v>11.37</v>
+            <v>19.593999999999998</v>
           </cell>
           <cell r="Q2">
-            <v>11.01</v>
+            <v>16.172449999999998</v>
           </cell>
           <cell r="R2">
-            <v>4.37</v>
+            <v>12.758287500000002</v>
           </cell>
           <cell r="S2">
-            <v>5.17</v>
+            <v>14.871139999999999</v>
           </cell>
           <cell r="T2">
-            <v>6.09</v>
+            <v>10.08586</v>
           </cell>
           <cell r="U2">
-            <v>4.7699999999999996</v>
+            <v>8.7737250000000007</v>
           </cell>
           <cell r="V2">
-            <v>4.6399999999999997</v>
+            <v>9.8389550000000003</v>
           </cell>
           <cell r="W2">
-            <v>3.6</v>
+            <v>13.74175</v>
           </cell>
           <cell r="X2">
-            <v>4.26</v>
+            <v>16.117327500000002</v>
           </cell>
           <cell r="Y2">
-            <v>20.81</v>
+            <v>14.23521</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>27.12</v>
+            <v>20.34</v>
           </cell>
           <cell r="C3">
-            <v>28.52</v>
+            <v>21.39</v>
           </cell>
           <cell r="D3">
-            <v>39.049999999999997</v>
+            <v>29.287499999999998</v>
           </cell>
           <cell r="E3">
-            <v>44.27</v>
+            <v>33.202500000000001</v>
           </cell>
           <cell r="F3">
-            <v>48.18</v>
+            <v>36.134999999999998</v>
           </cell>
           <cell r="G3">
-            <v>47.89</v>
+            <v>35.917500000000004</v>
           </cell>
           <cell r="H3">
-            <v>47.56</v>
+            <v>35.67</v>
           </cell>
           <cell r="I3">
-            <v>49.85</v>
+            <v>37.387500000000003</v>
           </cell>
           <cell r="J3">
-            <v>46.4</v>
+            <v>34.799999999999997</v>
           </cell>
           <cell r="K3">
-            <v>40.1</v>
+            <v>30.075000000000003</v>
           </cell>
           <cell r="L3">
-            <v>41.24</v>
+            <v>30.93</v>
           </cell>
           <cell r="M3">
-            <v>33.729999999999997</v>
+            <v>25.297499999999999</v>
           </cell>
           <cell r="N3">
-            <v>38.44</v>
+            <v>28.83</v>
           </cell>
           <cell r="O3">
-            <v>28.68</v>
+            <v>21.509999999999998</v>
           </cell>
           <cell r="P3">
-            <v>30.2</v>
+            <v>22.65</v>
           </cell>
           <cell r="Q3">
-            <v>27.12</v>
+            <v>20.34</v>
           </cell>
           <cell r="R3">
-            <v>18.190000000000001</v>
+            <v>13.642500000000002</v>
           </cell>
           <cell r="S3">
-            <v>22.68</v>
+            <v>17.009999999999998</v>
           </cell>
           <cell r="T3">
-            <v>14.82</v>
+            <v>11.115</v>
           </cell>
           <cell r="U3">
-            <v>13</v>
+            <v>9.75</v>
           </cell>
           <cell r="V3">
-            <v>14.51</v>
+            <v>10.8825</v>
           </cell>
           <cell r="W3">
-            <v>17.04</v>
+            <v>12.78</v>
           </cell>
           <cell r="X3">
-            <v>18.21</v>
+            <v>13.657500000000001</v>
           </cell>
           <cell r="Y3">
-            <v>14</v>
+            <v>10.5</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>16.43</v>
+            <v>27.930999999999997</v>
           </cell>
           <cell r="C4">
-            <v>15.51</v>
+            <v>26.366999999999997</v>
           </cell>
           <cell r="D4">
-            <v>16.440000000000001</v>
+            <v>27.948</v>
           </cell>
           <cell r="E4">
-            <v>16.41</v>
+            <v>27.896999999999998</v>
           </cell>
           <cell r="F4">
-            <v>16.920000000000002</v>
+            <v>28.764000000000003</v>
           </cell>
           <cell r="G4">
-            <v>14.12</v>
+            <v>24.003999999999998</v>
           </cell>
           <cell r="H4">
-            <v>12.35</v>
+            <v>20.994999999999997</v>
           </cell>
           <cell r="I4">
-            <v>11.65</v>
+            <v>19.805</v>
           </cell>
           <cell r="J4">
-            <v>10.45</v>
+            <v>17.764999999999997</v>
           </cell>
           <cell r="K4">
-            <v>9.51</v>
+            <v>16.166999999999998</v>
           </cell>
           <cell r="L4">
-            <v>7.8</v>
+            <v>13.26</v>
           </cell>
           <cell r="M4">
-            <v>7.83</v>
+            <v>13.311</v>
           </cell>
           <cell r="N4">
-            <v>8.5500000000000007</v>
+            <v>14.535</v>
           </cell>
           <cell r="O4">
-            <v>8.5500000000000007</v>
+            <v>14.535</v>
           </cell>
           <cell r="P4">
-            <v>9.5</v>
+            <v>16.149999999999999</v>
           </cell>
           <cell r="Q4">
-            <v>7.45</v>
+            <v>12.664999999999999</v>
           </cell>
           <cell r="R4">
-            <v>6.27</v>
+            <v>10.658999999999999</v>
           </cell>
           <cell r="S4">
-            <v>6.98</v>
+            <v>11.866</v>
           </cell>
           <cell r="T4">
-            <v>5.21</v>
+            <v>8.8569999999999993</v>
           </cell>
           <cell r="U4">
-            <v>5.13</v>
+            <v>8.7210000000000001</v>
           </cell>
           <cell r="V4">
-            <v>5.41</v>
+            <v>9.1969999999999992</v>
           </cell>
           <cell r="W4">
-            <v>9.5</v>
+            <v>16.149999999999999</v>
           </cell>
           <cell r="X4">
-            <v>10.74</v>
+            <v>18.257999999999999</v>
           </cell>
           <cell r="Y4">
-            <v>10.74</v>
+            <v>18.257999999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -858,13 +858,13 @@
             <v>24.97</v>
           </cell>
           <cell r="D2">
-            <v>0</v>
+            <v>24.97</v>
           </cell>
           <cell r="E2">
             <v>25.97</v>
           </cell>
           <cell r="F2">
-            <v>0</v>
+            <v>25.97</v>
           </cell>
           <cell r="G2">
             <v>24.97</v>
@@ -926,81 +926,81 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>4.22</v>
+            <v>28.36</v>
           </cell>
           <cell r="C3">
-            <v>0</v>
+            <v>28.36</v>
           </cell>
           <cell r="D3">
-            <v>4.22</v>
+            <v>27.234999999999999</v>
           </cell>
           <cell r="E3">
-            <v>4.22</v>
+            <v>28.86</v>
           </cell>
           <cell r="F3">
-            <v>4.22</v>
+            <v>28.86</v>
           </cell>
           <cell r="G3">
-            <v>4.22</v>
+            <v>28.36</v>
           </cell>
           <cell r="H3">
-            <v>4.22</v>
+            <v>37.325000000000003</v>
           </cell>
           <cell r="I3">
-            <v>4.22</v>
+            <v>30.75</v>
           </cell>
           <cell r="J3">
-            <v>4.22</v>
+            <v>32.480000000000004</v>
           </cell>
           <cell r="K3">
-            <v>0</v>
+            <v>34.879999999999995</v>
           </cell>
           <cell r="L3">
-            <v>0</v>
+            <v>32.489999999999995</v>
           </cell>
           <cell r="M3">
-            <v>0</v>
+            <v>32.489999999999995</v>
           </cell>
           <cell r="N3">
-            <v>0</v>
+            <v>32.480000000000004</v>
           </cell>
           <cell r="O3">
-            <v>0</v>
+            <v>32.5</v>
           </cell>
           <cell r="P3">
-            <v>0</v>
+            <v>32.480000000000004</v>
           </cell>
           <cell r="Q3">
-            <v>0</v>
+            <v>32.480000000000004</v>
           </cell>
           <cell r="R3">
-            <v>0</v>
+            <v>34.885000000000005</v>
           </cell>
           <cell r="S3">
-            <v>5.8</v>
+            <v>36.875</v>
           </cell>
           <cell r="T3">
-            <v>5.9</v>
+            <v>36.875</v>
           </cell>
           <cell r="U3">
-            <v>5.9</v>
+            <v>36.875</v>
           </cell>
           <cell r="V3">
-            <v>6.1</v>
+            <v>36.875</v>
           </cell>
           <cell r="W3">
-            <v>5.9</v>
+            <v>35.370000000000005</v>
           </cell>
           <cell r="X3">
-            <v>5.6</v>
+            <v>30.75</v>
           </cell>
           <cell r="Y3">
-            <v>36.6</v>
+            <v>30.75</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0</v>
+            <v>31.75</v>
           </cell>
           <cell r="C4">
             <v>31.75</v>
@@ -1300,76 +1300,76 @@
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>7.99</v>
+            <v>10.26</v>
           </cell>
           <cell r="C2">
-            <v>7.99</v>
+            <v>10.909500000000001</v>
           </cell>
           <cell r="D2">
-            <v>7.99</v>
+            <v>10.084849999999999</v>
           </cell>
           <cell r="E2">
-            <v>10.36</v>
+            <v>8.7750000000000004</v>
           </cell>
           <cell r="F2">
-            <v>9.69</v>
+            <v>7.9588000000000001</v>
           </cell>
           <cell r="G2">
-            <v>8.8800000000000008</v>
+            <v>6.3310499999999994</v>
           </cell>
           <cell r="H2">
-            <v>8.09</v>
+            <v>5.706900000000001</v>
           </cell>
           <cell r="I2">
-            <v>6.99</v>
+            <v>4.8929999999999998</v>
           </cell>
           <cell r="J2">
-            <v>2.69</v>
+            <v>4.0228999999999999</v>
           </cell>
           <cell r="K2">
-            <v>4.49</v>
+            <v>4.4879999999999995</v>
           </cell>
           <cell r="L2">
-            <v>6.49</v>
+            <v>4.2223500000000005</v>
           </cell>
           <cell r="M2">
-            <v>7.74</v>
+            <v>4.0441500000000001</v>
           </cell>
           <cell r="N2">
-            <v>7.65</v>
+            <v>3.6749999999999998</v>
           </cell>
           <cell r="O2">
-            <v>8.39</v>
+            <v>4.1912000000000003</v>
           </cell>
           <cell r="P2">
-            <v>9.49</v>
+            <v>4.4894500000000006</v>
           </cell>
           <cell r="Q2">
-            <v>8.32</v>
+            <v>3.9945499999999998</v>
           </cell>
           <cell r="R2">
-            <v>7.65</v>
+            <v>2.9760000000000004</v>
           </cell>
           <cell r="S2">
-            <v>6.37</v>
+            <v>2.5608</v>
           </cell>
           <cell r="T2">
-            <v>6.49</v>
+            <v>3.0141000000000004</v>
           </cell>
           <cell r="U2">
-            <v>6.49</v>
+            <v>2.2196999999999996</v>
           </cell>
           <cell r="V2">
-            <v>7.73</v>
+            <v>3.6414</v>
           </cell>
           <cell r="W2">
-            <v>8.56</v>
+            <v>6.7825499999999996</v>
           </cell>
           <cell r="X2">
-            <v>6.99</v>
+            <v>7.5711999999999993</v>
           </cell>
           <cell r="Y2">
-            <v>7.89</v>
+            <v>6.9015499999999994</v>
           </cell>
         </row>
         <row r="3">
@@ -1524,150 +1524,150 @@
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
-            <v>46.31</v>
+            <v>42.153333333333336</v>
           </cell>
           <cell r="C2">
-            <v>46.31</v>
+            <v>42.486666666666672</v>
           </cell>
           <cell r="D2">
-            <v>46.31</v>
+            <v>42.486666666666672</v>
           </cell>
           <cell r="E2">
-            <v>64.64</v>
+            <v>51.303333333333335</v>
           </cell>
           <cell r="F2">
-            <v>48.31</v>
+            <v>44.726666666666667</v>
           </cell>
           <cell r="G2">
-            <v>42</v>
+            <v>53.636666666666677</v>
           </cell>
           <cell r="H2">
-            <v>48.31</v>
+            <v>52.483333333333327</v>
           </cell>
           <cell r="I2">
-            <v>42</v>
+            <v>40.266666666666673</v>
           </cell>
           <cell r="J2">
-            <v>42</v>
+            <v>40.466666666666669</v>
           </cell>
           <cell r="K2">
-            <v>43</v>
+            <v>59.133333333333333</v>
           </cell>
           <cell r="L2">
-            <v>43</v>
+            <v>40.833333333333336</v>
           </cell>
           <cell r="M2">
-            <v>43</v>
+            <v>40.833333333333336</v>
           </cell>
           <cell r="N2">
-            <v>99</v>
+            <v>59.5</v>
           </cell>
           <cell r="O2">
-            <v>99</v>
+            <v>59.5</v>
           </cell>
           <cell r="P2">
-            <v>43</v>
+            <v>44.09</v>
           </cell>
           <cell r="Q2">
-            <v>43</v>
+            <v>40.800000000000004</v>
           </cell>
           <cell r="R2">
-            <v>43</v>
+            <v>40.800000000000004</v>
           </cell>
           <cell r="S2">
-            <v>43</v>
+            <v>41.06666666666667</v>
           </cell>
           <cell r="T2">
-            <v>43</v>
+            <v>40.866666666666667</v>
           </cell>
           <cell r="U2">
-            <v>43</v>
+            <v>44.09</v>
           </cell>
           <cell r="V2">
-            <v>43</v>
+            <v>40.6</v>
           </cell>
           <cell r="W2">
-            <v>48.31</v>
+            <v>45.860000000000007</v>
           </cell>
           <cell r="X2">
-            <v>35.4</v>
+            <v>37.6</v>
           </cell>
           <cell r="Y2">
-            <v>35.4</v>
+            <v>37.6</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>49.87</v>
+            <v>36.216666666666669</v>
           </cell>
           <cell r="C3">
-            <v>49.87</v>
+            <v>36.88333333333334</v>
           </cell>
           <cell r="D3">
-            <v>49.87</v>
+            <v>36.88333333333334</v>
           </cell>
           <cell r="E3">
-            <v>49.87</v>
+            <v>45.351666666666667</v>
           </cell>
           <cell r="F3">
-            <v>49.87</v>
+            <v>40.36333333333333</v>
           </cell>
           <cell r="G3">
-            <v>49.87</v>
+            <v>61.338333333333338</v>
           </cell>
           <cell r="H3">
+            <v>60.76166666666667</v>
+          </cell>
+          <cell r="I3">
+            <v>39.833333333333336</v>
+          </cell>
+          <cell r="J3">
+            <v>40.233333333333334</v>
+          </cell>
+          <cell r="K3">
+            <v>49.266666666666666</v>
+          </cell>
+          <cell r="L3">
+            <v>40.116666666666667</v>
+          </cell>
+          <cell r="M3">
+            <v>40.116666666666667</v>
+          </cell>
+          <cell r="N3">
+            <v>49.45</v>
+          </cell>
+          <cell r="O3">
+            <v>49.45</v>
+          </cell>
+          <cell r="P3">
+            <v>41.745000000000005</v>
+          </cell>
+          <cell r="Q3">
             <v>40.1</v>
           </cell>
-          <cell r="I3">
-            <v>39.4</v>
-          </cell>
-          <cell r="J3">
-            <v>39.4</v>
-          </cell>
-          <cell r="K3">
-            <v>95</v>
-          </cell>
-          <cell r="L3">
-            <v>40.1</v>
-          </cell>
-          <cell r="M3">
-            <v>40.1</v>
-          </cell>
-          <cell r="N3">
-            <v>40.1</v>
-          </cell>
-          <cell r="O3">
-            <v>40.1</v>
-          </cell>
-          <cell r="P3">
-            <v>49.87</v>
-          </cell>
-          <cell r="Q3">
+          <cell r="R3">
+            <v>40.400000000000006</v>
+          </cell>
+          <cell r="S3">
+            <v>40.63333333333334</v>
+          </cell>
+          <cell r="T3">
+            <v>40.533333333333331</v>
+          </cell>
+          <cell r="U3">
+            <v>41.745000000000005</v>
+          </cell>
+          <cell r="V3">
             <v>40</v>
           </cell>
-          <cell r="R3">
-            <v>39.4</v>
-          </cell>
-          <cell r="S3">
-            <v>40</v>
-          </cell>
-          <cell r="T3">
-            <v>39.4</v>
-          </cell>
-          <cell r="U3">
-            <v>49.87</v>
-          </cell>
-          <cell r="V3">
-            <v>39.4</v>
-          </cell>
           <cell r="W3">
-            <v>49.87</v>
+            <v>42.63</v>
           </cell>
           <cell r="X3">
-            <v>37.4</v>
+            <v>38.799999999999997</v>
           </cell>
           <cell r="Y3">
-            <v>37.4</v>
+            <v>38.799999999999997</v>
           </cell>
         </row>
         <row r="4">
@@ -1822,150 +1822,150 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>39.4</v>
+            <v>27.917499999999997</v>
           </cell>
           <cell r="C3">
-            <v>39.4</v>
+            <v>27.917499999999997</v>
           </cell>
           <cell r="D3">
-            <v>39.4</v>
+            <v>27.917499999999997</v>
           </cell>
           <cell r="E3">
-            <v>39.4</v>
+            <v>27.917499999999997</v>
           </cell>
           <cell r="F3">
-            <v>39.4</v>
+            <v>31.63</v>
           </cell>
           <cell r="G3">
-            <v>7.06</v>
+            <v>23.537500000000001</v>
           </cell>
           <cell r="H3">
-            <v>29.97</v>
+            <v>29.28</v>
           </cell>
           <cell r="I3">
-            <v>20.55</v>
+            <v>26.9175</v>
           </cell>
           <cell r="J3">
-            <v>20.55</v>
+            <v>26.9175</v>
           </cell>
           <cell r="K3">
-            <v>36.65</v>
+            <v>30.950000000000003</v>
           </cell>
           <cell r="L3">
-            <v>36.65</v>
+            <v>33.162500000000001</v>
           </cell>
           <cell r="M3">
-            <v>36.65</v>
+            <v>30.935000000000002</v>
           </cell>
           <cell r="N3">
-            <v>29.97</v>
+            <v>29.265000000000001</v>
           </cell>
           <cell r="O3">
-            <v>29.97</v>
+            <v>29.265000000000001</v>
           </cell>
           <cell r="P3">
-            <v>29.97</v>
+            <v>31.4925</v>
           </cell>
           <cell r="Q3">
-            <v>36.65</v>
+            <v>30.92</v>
           </cell>
           <cell r="R3">
-            <v>36.65</v>
+            <v>33.162500000000001</v>
           </cell>
           <cell r="S3">
-            <v>36.65</v>
+            <v>30.92</v>
           </cell>
           <cell r="T3">
-            <v>36.65</v>
+            <v>30.92</v>
           </cell>
           <cell r="U3">
-            <v>36.65</v>
+            <v>30.92</v>
           </cell>
           <cell r="V3">
-            <v>36.65</v>
+            <v>30.92</v>
           </cell>
           <cell r="W3">
-            <v>29.97</v>
+            <v>29.25</v>
           </cell>
           <cell r="X3">
-            <v>26.19</v>
+            <v>28.305</v>
           </cell>
           <cell r="Y3">
-            <v>26.19</v>
+            <v>27.532499999999999</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>2.2200000000000002</v>
+            <v>31.744999999999997</v>
           </cell>
           <cell r="C4">
-            <v>2.2000000000000002</v>
+            <v>31.744999999999997</v>
           </cell>
           <cell r="D4">
-            <v>2.2200000000000002</v>
+            <v>31.744999999999997</v>
           </cell>
           <cell r="E4">
-            <v>2.2200000000000002</v>
+            <v>31.744999999999997</v>
           </cell>
           <cell r="F4">
-            <v>37.51</v>
+            <v>34.22</v>
           </cell>
           <cell r="G4">
-            <v>37.520000000000003</v>
+            <v>18.045000000000002</v>
           </cell>
           <cell r="H4">
-            <v>37.520000000000003</v>
+            <v>29.509999999999998</v>
           </cell>
           <cell r="I4">
-            <v>20.02</v>
+            <v>24.795000000000002</v>
           </cell>
           <cell r="J4">
-            <v>26</v>
+            <v>24.795000000000002</v>
           </cell>
           <cell r="K4">
-            <v>37.51</v>
+            <v>32.85</v>
           </cell>
           <cell r="L4">
-            <v>37.51</v>
+            <v>34.325000000000003</v>
           </cell>
           <cell r="M4">
-            <v>37.9</v>
+            <v>32.840000000000003</v>
           </cell>
           <cell r="N4">
-            <v>37.9</v>
+            <v>29.5</v>
           </cell>
           <cell r="O4">
-            <v>37.9</v>
+            <v>29.5</v>
           </cell>
           <cell r="P4">
-            <v>37.51</v>
+            <v>30.984999999999999</v>
           </cell>
           <cell r="Q4">
-            <v>37.51</v>
+            <v>32.83</v>
           </cell>
           <cell r="R4">
-            <v>25.67</v>
+            <v>34.325000000000003</v>
           </cell>
           <cell r="S4">
-            <v>37.51</v>
+            <v>32.83</v>
           </cell>
           <cell r="T4">
-            <v>37.51</v>
+            <v>32.83</v>
           </cell>
           <cell r="U4">
-            <v>37.51</v>
+            <v>32.83</v>
           </cell>
           <cell r="V4">
-            <v>37.51</v>
+            <v>32.83</v>
           </cell>
           <cell r="W4">
-            <v>37.51</v>
+            <v>29.490000000000002</v>
           </cell>
           <cell r="X4">
-            <v>30.19</v>
+            <v>27.6</v>
           </cell>
           <cell r="Y4">
-            <v>30.19</v>
+            <v>27.085000000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -2422,99 +2422,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*Scenarios!$B$6</f>
-        <v>42.713564476616291</v>
+        <v>53.282246097970834</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*Scenarios!$B$6</f>
-        <v>41.470190168221642</v>
+        <v>49.716687419486163</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*Scenarios!$B$6</f>
-        <v>36.569832599842712</v>
+        <v>47.604779586845247</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*Scenarios!$B$6</f>
-        <v>36.606402432442557</v>
+        <v>44.642623146257996</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*Scenarios!$B$6</f>
-        <v>40.946022567623892</v>
+        <v>45.974374550102269</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*Scenarios!$B$6</f>
-        <v>40.653463906825152</v>
+        <v>49.667927642686386</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*Scenarios!$B$6</f>
-        <v>41.458000224021688</v>
+        <v>60.090329933641556</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*Scenarios!$B$6</f>
-        <v>43.067072858414768</v>
+        <v>62.887922127529521</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*Scenarios!$B$6</f>
-        <v>45.029653874606325</v>
+        <v>66.130447284715572</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*Scenarios!$B$6</f>
-        <v>47.223843830596891</v>
+        <v>65.627612086467735</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*Scenarios!$B$6</f>
-        <v>44.615195771808111</v>
+        <v>64.362905375723187</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*Scenarios!$B$6</f>
-        <v>41.677419219620745</v>
+        <v>64.049014312574528</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*Scenarios!$B$6</f>
-        <v>41.445810279821742</v>
+        <v>61.568360667885187</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*Scenarios!$B$6</f>
-        <v>41.445810279821742</v>
+        <v>60.699827143638935</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*Scenarios!$B$6</f>
-        <v>36.569832599842712</v>
+        <v>59.508260098094055</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*Scenarios!$B$6</f>
-        <v>35.107039295849006</v>
+        <v>59.627112054043543</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*Scenarios!$B$6</f>
-        <v>36.447933157843238</v>
+        <v>60.547452841139588</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*Scenarios!$B$6</f>
-        <v>46.626536564799459</v>
+        <v>63.540084142226711</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*Scenarios!$B$6</f>
-        <v>48.698827078790551</v>
+        <v>66.581475220113646</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*Scenarios!$B$6</f>
-        <v>50.527318708782687</v>
+        <v>67.093452876511435</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*Scenarios!$B$6</f>
-        <v>54.647519848364958</v>
+        <v>65.545329963118078</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*Scenarios!$B$6</f>
-        <v>54.635329904165012</v>
+        <v>61.428176309585794</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*Scenarios!$B$6</f>
-        <v>49.856871777785564</v>
+        <v>55.442913707411542</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*Scenarios!$B$6</f>
-        <v>48.455028194791595</v>
+        <v>52.038871789576177</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2523,99 +2523,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*Scenarios!$B$6</f>
-        <v>36.874581204841405</v>
+        <v>49.759352224185989</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*Scenarios!$B$6</f>
-        <v>32.730000176859228</v>
+        <v>46.967855002397989</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*Scenarios!$B$6</f>
-        <v>27.122625844883345</v>
+        <v>43.926463924511069</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*Scenarios!$B$6</f>
-        <v>22.051609057705157</v>
+        <v>41.963882908319512</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*Scenarios!$B$6</f>
-        <v>12.189944199947572</v>
+        <v>44.298257222609479</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*Scenarios!$B$6</f>
-        <v>9.7519553599580568</v>
+        <v>46.663106397399304</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*Scenarios!$B$6</f>
-        <v>10.251743072155907</v>
+        <v>53.879553363768267</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*Scenarios!$B$6</f>
-        <v>10.251743072155907</v>
+        <v>56.280972371157937</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*Scenarios!$B$6</f>
-        <v>13.165139735943377</v>
+        <v>59.096849481345828</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*Scenarios!$B$6</f>
-        <v>20.710715195710922</v>
+        <v>59.493022667844123</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*Scenarios!$B$6</f>
-        <v>23.819150966697553</v>
+        <v>57.780335507751495</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*Scenarios!$B$6</f>
-        <v>21.84438000630605</v>
+        <v>56.591815948256595</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*Scenarios!$B$6</f>
-        <v>27.732123054880724</v>
+        <v>54.860843871864041</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*Scenarios!$B$6</f>
-        <v>24.379888399895144</v>
+        <v>54.281821522366535</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*Scenarios!$B$6</f>
-        <v>26.293709639286909</v>
+        <v>51.862117598676946</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*Scenarios!$B$6</f>
-        <v>23.648491747898287</v>
+        <v>51.453754467978698</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*Scenarios!$B$6</f>
-        <v>29.012067195875218</v>
+        <v>52.514279613374136</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*Scenarios!$B$6</f>
-        <v>35.716536505846385</v>
+        <v>57.902234949750962</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*Scenarios!$B$6</f>
-        <v>42.993933193215085</v>
+        <v>60.620592506339278</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*Scenarios!$B$6</f>
-        <v>49.978771219785038</v>
+        <v>61.571408153935188</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*Scenarios!$B$6</f>
-        <v>52.441139948174452</v>
+        <v>61.912726591533712</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*Scenarios!$B$6</f>
-        <v>52.416760059774553</v>
+        <v>59.163894174445531</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*Scenarios!$B$6</f>
-        <v>50.429799155183098</v>
+        <v>53.580899730869547</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*Scenarios!$B$6</f>
-        <v>50.405419266783206</v>
+        <v>50.844257257981319</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2870,99 +2870,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Winter'!B2*Scenarios!$B$7</f>
-        <v>3.2669050455859492</v>
+        <v>30.892091814972634</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Winter'!C2*Scenarios!$B$7</f>
-        <v>3.9373519765830656</v>
+        <v>29.980991005580151</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Winter'!D2*Scenarios!$B$7</f>
-        <v>9.2643575919601542</v>
+        <v>33.838331235920812</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Winter'!E2*Scenarios!$B$7</f>
-        <v>5.3148156711771417</v>
+        <v>37.239974782234832</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Winter'!F2*Scenarios!$B$7</f>
-        <v>5.3757653921768789</v>
+        <v>39.160201837303674</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Winter'!G2*Scenarios!$B$7</f>
-        <v>7.2895866315686479</v>
+        <v>35.791547327480764</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Winter'!H2*Scenarios!$B$7</f>
-        <v>6.3265810397727895</v>
+        <v>33.155673028321402</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Winter'!I2*Scenarios!$B$7</f>
-        <v>7.4114860735681232</v>
+        <v>35.904429258258325</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Winter'!J2*Scenarios!$B$7</f>
-        <v>5.704893885575463</v>
+        <v>31.397456426641959</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Winter'!K2*Scenarios!$B$7</f>
-        <v>5.4245251689766691</v>
+        <v>28.466213684545767</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Winter'!L2*Scenarios!$B$7</f>
-        <v>8.0209832835655011</v>
+        <v>28.011028978175524</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Winter'!M2*Scenarios!$B$7</f>
-        <v>11.446357603750769</v>
+        <v>24.70836168379298</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Winter'!N2*Scenarios!$B$7</f>
-        <v>11.885195594948883</v>
+        <v>27.488080371997768</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Winter'!O2*Scenarios!$B$7</f>
-        <v>12.982290572944164</v>
+        <v>22.848100011729731</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Winter'!P2*Scenarios!$B$7</f>
-        <v>13.859966555340387</v>
+        <v>23.884976665377266</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q2*Scenarios!$B$7</f>
-        <v>13.421128564142276</v>
+        <v>19.714126307644207</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Winter'!R2*Scenarios!$B$7</f>
-        <v>5.3270056153770886</v>
+        <v>15.552281271188862</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Winter'!S2*Scenarios!$B$7</f>
-        <v>6.3022011513728939</v>
+        <v>18.127836678960829</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Winter'!T2*Scenarios!$B$7</f>
-        <v>7.423676017768071</v>
+        <v>12.294607060848321</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Winter'!U2*Scenarios!$B$7</f>
-        <v>5.8146033833749913</v>
+        <v>10.6951218175685</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Winter'!V2*Scenarios!$B$7</f>
-        <v>5.6561341087756727</v>
+        <v>11.993631243579516</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Winter'!W2*Scenarios!$B$7</f>
-        <v>4.3883799119811258</v>
+        <v>16.751116570962953</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Winter'!X2*Scenarios!$B$7</f>
-        <v>5.1929162291776647</v>
+        <v>19.646932287728049</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y2*Scenarios!$B$7</f>
-        <v>25.367273880090895</v>
+        <v>17.352641557453566</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2971,99 +2971,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Secondary Reserve, Winter'!B3*Scenarios!$B$7</f>
-        <v>33.059128670257813</v>
+        <v>24.794346502693358</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Secondary Reserve, Winter'!C3*Scenarios!$B$7</f>
-        <v>34.765720858250475</v>
+        <v>26.074290643687856</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Secondary Reserve, Winter'!D3*Scenarios!$B$7</f>
-        <v>47.60173210079526</v>
+        <v>35.701299075596445</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Secondary Reserve, Winter'!E3*Scenarios!$B$7</f>
-        <v>53.964882973167903</v>
+        <v>40.47366222987592</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Secondary Reserve, Winter'!F3*Scenarios!$B$7</f>
-        <v>58.731151155347398</v>
+        <v>44.048363366510543</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Secondary Reserve, Winter'!G3*Scenarios!$B$7</f>
-        <v>58.377642773548921</v>
+        <v>43.783232080161696</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Secondary Reserve, Winter'!H3*Scenarios!$B$7</f>
-        <v>57.975374614950653</v>
+        <v>43.481530961212989</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Secondary Reserve, Winter'!I3*Scenarios!$B$7</f>
-        <v>60.766871836738645</v>
+        <v>45.575153877553987</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Secondary Reserve, Winter'!J3*Scenarios!$B$7</f>
-        <v>56.56134108775673</v>
+        <v>42.421005815817544</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Secondary Reserve, Winter'!K3*Scenarios!$B$7</f>
-        <v>48.881676241789762</v>
+        <v>36.661257181342322</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Secondary Reserve, Winter'!L3*Scenarios!$B$7</f>
-        <v>50.271329880583785</v>
+        <v>37.703497410437834</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Secondary Reserve, Winter'!M3*Scenarios!$B$7</f>
-        <v>41.11668178642315</v>
+        <v>30.837511339817368</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Secondary Reserve, Winter'!N3*Scenarios!$B$7</f>
-        <v>46.858145504598461</v>
+        <v>35.143609128448844</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Secondary Reserve, Winter'!O3*Scenarios!$B$7</f>
-        <v>34.960759965449633</v>
+        <v>26.220569974087223</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Secondary Reserve, Winter'!P3*Scenarios!$B$7</f>
-        <v>36.813631483841661</v>
+        <v>27.610223612881246</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q3*Scenarios!$B$7</f>
-        <v>33.059128670257813</v>
+        <v>24.794346502693358</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Secondary Reserve, Winter'!R3*Scenarios!$B$7</f>
-        <v>22.173508499704635</v>
+        <v>16.630131374778475</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Secondary Reserve, Winter'!S3*Scenarios!$B$7</f>
-        <v>27.646793445481091</v>
+        <v>20.735095084110817</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Secondary Reserve, Winter'!T3*Scenarios!$B$7</f>
-        <v>18.065497304322299</v>
+        <v>13.549122978241725</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Secondary Reserve, Winter'!U3*Scenarios!$B$7</f>
-        <v>15.846927459931843</v>
+        <v>11.885195594948883</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Secondary Reserve, Winter'!V3*Scenarios!$B$7</f>
-        <v>17.687609034123927</v>
+        <v>13.265706775592944</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Secondary Reserve, Winter'!W3*Scenarios!$B$7</f>
-        <v>20.771664916710659</v>
+        <v>15.578748687532995</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Secondary Reserve, Winter'!X3*Scenarios!$B$7</f>
-        <v>22.197888388104527</v>
+        <v>16.648416291078394</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y3*Scenarios!$B$7</f>
-        <v>17.065921879926599</v>
+        <v>12.799441409944949</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3072,99 +3072,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Secondary Reserve, Winter'!B4*Scenarios!$B$7</f>
-        <v>20.02807832051386</v>
+        <v>34.047733144873554</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Secondary Reserve, Winter'!C4*Scenarios!$B$7</f>
-        <v>18.906603454118681</v>
+        <v>32.141225872001755</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Secondary Reserve, Winter'!D4*Scenarios!$B$7</f>
-        <v>20.040268264713809</v>
+        <v>34.068456050013474</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Secondary Reserve, Winter'!E4*Scenarios!$B$7</f>
-        <v>20.003698432113964</v>
+        <v>34.006287334593736</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Secondary Reserve, Winter'!F4*Scenarios!$B$7</f>
-        <v>20.625385586311292</v>
+        <v>35.063155496729195</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Secondary Reserve, Winter'!G4*Scenarios!$B$7</f>
-        <v>17.212201210325969</v>
+        <v>29.260742057554147</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Secondary Reserve, Winter'!H4*Scenarios!$B$7</f>
-        <v>15.054581086935249</v>
+        <v>25.592787847789921</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Secondary Reserve, Winter'!I4*Scenarios!$B$7</f>
-        <v>14.201284992938922</v>
+        <v>24.142184487996165</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Secondary Reserve, Winter'!J4*Scenarios!$B$7</f>
-        <v>12.73849168894521</v>
+        <v>21.655435871206855</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Secondary Reserve, Winter'!K4*Scenarios!$B$7</f>
-        <v>11.592636934150139</v>
+        <v>19.707482788055234</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Secondary Reserve, Winter'!L4*Scenarios!$B$7</f>
-        <v>9.5081564759591046</v>
+        <v>16.16386600913048</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Secondary Reserve, Winter'!M4*Scenarios!$B$7</f>
-        <v>9.544726308558948</v>
+        <v>16.22603472455021</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Secondary Reserve, Winter'!N4*Scenarios!$B$7</f>
-        <v>10.422402290955175</v>
+        <v>17.718083894623796</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Secondary Reserve, Winter'!O4*Scenarios!$B$7</f>
-        <v>10.422402290955175</v>
+        <v>17.718083894623796</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Secondary Reserve, Winter'!P4*Scenarios!$B$7</f>
-        <v>11.580446989950193</v>
+        <v>19.686759882915325</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q4*Scenarios!$B$7</f>
-        <v>9.0815084289609409</v>
+        <v>15.438564329233598</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Secondary Reserve, Winter'!R4*Scenarios!$B$7</f>
-        <v>7.6430950133671267</v>
+        <v>12.993261522724115</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Secondary Reserve, Winter'!S4*Scenarios!$B$7</f>
-        <v>8.5085810515634055</v>
+        <v>14.464587787657788</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Secondary Reserve, Winter'!T4*Scenarios!$B$7</f>
-        <v>6.3509609281726842</v>
+        <v>10.796633577893562</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Secondary Reserve, Winter'!U4*Scenarios!$B$7</f>
-        <v>6.2534413745731037</v>
+        <v>10.630850336774277</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Secondary Reserve, Winter'!V4*Scenarios!$B$7</f>
-        <v>6.5947598121716364</v>
+        <v>11.21109168069178</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Secondary Reserve, Winter'!W4*Scenarios!$B$7</f>
-        <v>11.580446989950193</v>
+        <v>19.686759882915325</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Secondary Reserve, Winter'!X4*Scenarios!$B$7</f>
-        <v>13.092000070743692</v>
+        <v>22.256400120264274</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y4*Scenarios!$B$7</f>
-        <v>13.092000070743692</v>
+        <v>22.256400120264274</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D2*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>30.438290667269083</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E2*Scenarios!$B$9</f>
@@ -3806,7 +3806,7 @@
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F2*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>31.65728508726384</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G2*Scenarios!$B$9</f>
@@ -3891,99 +3891,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B3*Scenarios!$B$9</f>
-        <v>5.1441564523778744</v>
+        <v>34.57068175105131</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>34.57068175105131</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D3*Scenarios!$B$9</f>
-        <v>5.1441564523778744</v>
+        <v>33.199313028557206</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E3*Scenarios!$B$9</f>
-        <v>5.1441564523778744</v>
+        <v>35.180178961048689</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F3*Scenarios!$B$9</f>
-        <v>5.1441564523778744</v>
+        <v>35.180178961048689</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G3*Scenarios!$B$9</f>
-        <v>5.1441564523778744</v>
+        <v>34.57068175105131</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H3*Scenarios!$B$9</f>
-        <v>5.1441564523778744</v>
+        <v>45.49896672630431</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I3*Scenarios!$B$9</f>
-        <v>5.1441564523778744</v>
+        <v>37.484078414838784</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J3*Scenarios!$B$9</f>
-        <v>5.1441564523778744</v>
+        <v>39.592938761429714</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>42.518525369417119</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>39.605128705629653</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>39.605128705629653</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>39.592938761429714</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>39.617318649829606</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>39.592938761429714</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>39.592938761429714</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>42.524620341517107</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S3*Scenarios!$B$9</f>
-        <v>7.0701676359695913</v>
+        <v>44.950419237306669</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T3*Scenarios!$B$9</f>
-        <v>7.1920670779690674</v>
+        <v>44.950419237306669</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U3*Scenarios!$B$9</f>
-        <v>7.1920670779690674</v>
+        <v>44.950419237306669</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V3*Scenarios!$B$9</f>
-        <v>7.4358659619680179</v>
+        <v>44.950419237306669</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W3*Scenarios!$B$9</f>
-        <v>7.1920670779690674</v>
+        <v>43.115832635214566</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X3*Scenarios!$B$9</f>
-        <v>6.8263687519706391</v>
+        <v>37.484078414838784</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y3*Scenarios!$B$9</f>
-        <v>44.615195771808111</v>
+        <v>37.484078414838784</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B4*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>38.703072834833542</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C4*Scenarios!$B$9</f>
@@ -4685,99 +4685,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Summer'!B2*Scenarios!$B$7</f>
-        <v>9.7397654157581091</v>
+        <v>12.506882749146207</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Summer'!C2*Scenarios!$B$7</f>
-        <v>9.7397654157581091</v>
+        <v>13.298619624932805</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Summer'!D2*Scenarios!$B$7</f>
-        <v>9.7397654157581091</v>
+        <v>12.293375876484125</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Summer'!E2*Scenarios!$B$7</f>
-        <v>12.628782191145683</v>
+        <v>10.696676035453994</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Summer'!F2*Scenarios!$B$7</f>
-        <v>11.812055929749196</v>
+        <v>9.7017327898542725</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Summer'!G2*Scenarios!$B$7</f>
-        <v>10.824670449553444</v>
+        <v>7.7175146227078066</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Summer'!H2*Scenarios!$B$7</f>
-        <v>9.8616648577575852</v>
+        <v>6.9566792554680807</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Summer'!I2*Scenarios!$B$7</f>
-        <v>8.5207709957633533</v>
+        <v>5.9645396970343461</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Summer'!J2*Scenarios!$B$7</f>
-        <v>3.2790949897858965</v>
+        <v>4.903892652196908</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Summer'!K2*Scenarios!$B$7</f>
-        <v>5.4732849457764594</v>
+        <v>5.4708469569364695</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Summer'!L2*Scenarios!$B$7</f>
-        <v>7.9112737857659736</v>
+        <v>5.1470210892648636</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Summer'!M2*Scenarios!$B$7</f>
-        <v>9.4350168107594197</v>
+        <v>4.9297962836217968</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Summer'!N2*Scenarios!$B$7</f>
-        <v>9.3253073129598931</v>
+        <v>4.4798044934807324</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Summer'!O2*Scenarios!$B$7</f>
-        <v>10.227363183756013</v>
+        <v>5.1090494130820261</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Summer'!P2*Scenarios!$B$7</f>
-        <v>11.568257045750245</v>
+        <v>5.4726144988454628</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q2*Scenarios!$B$7</f>
-        <v>10.142033574356379</v>
+        <v>4.8693341603900571</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Summer'!R2*Scenarios!$B$7</f>
-        <v>9.3253073129598931</v>
+        <v>3.6277273939043977</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Summer'!S2*Scenarios!$B$7</f>
-        <v>7.7649944553666028</v>
+        <v>3.1216009107225742</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Summer'!T2*Scenarios!$B$7</f>
-        <v>7.9112737857659736</v>
+        <v>3.6741710813061981</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Summer'!U2*Scenarios!$B$7</f>
-        <v>7.9112737857659736</v>
+        <v>2.7058019140623619</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Summer'!V2*Scenarios!$B$7</f>
-        <v>9.4228268665594737</v>
+        <v>4.4388462809689084</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Summer'!W2*Scenarios!$B$7</f>
-        <v>10.434592235155121</v>
+        <v>8.2678906033354398</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Summer'!X2*Scenarios!$B$7</f>
-        <v>8.5207709957633533</v>
+        <v>9.2292505526643041</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y2*Scenarios!$B$7</f>
-        <v>9.6178659737586329</v>
+        <v>8.4129509393148147</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5158,99 +5158,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B2*Scenarios!$B$8</f>
-        <v>56.451631589957202</v>
+        <v>51.38467811751233</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C2*Scenarios!$B$8</f>
-        <v>56.451631589957202</v>
+        <v>51.79100959084392</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D2*Scenarios!$B$8</f>
-        <v>56.451631589957202</v>
+        <v>51.79100959084392</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E2*Scenarios!$B$8</f>
-        <v>78.795799308461099</v>
+        <v>62.538477060464359</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F2*Scenarios!$B$8</f>
-        <v>58.889620429946717</v>
+        <v>54.521557091632168</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G2*Scenarios!$B$8</f>
-        <v>51.197765639779796</v>
+        <v>65.382797373785465</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H2*Scenarios!$B$8</f>
-        <v>58.889620429946717</v>
+        <v>63.976890476058159</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I2*Scenarios!$B$8</f>
-        <v>51.197765639779796</v>
+        <v>49.084841978455557</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J2*Scenarios!$B$8</f>
-        <v>51.197765639779796</v>
+        <v>49.328640862454506</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K2*Scenarios!$B$8</f>
-        <v>52.416760059774553</v>
+        <v>72.083203369023309</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L2*Scenarios!$B$8</f>
-        <v>52.416760059774553</v>
+        <v>49.77560548311925</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M2*Scenarios!$B$8</f>
-        <v>52.416760059774553</v>
+        <v>49.77560548311925</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N2*Scenarios!$B$8</f>
-        <v>120.68044757948095</v>
+        <v>72.530167989688053</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O2*Scenarios!$B$8</f>
-        <v>120.68044757948095</v>
+        <v>72.530167989688053</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P2*Scenarios!$B$8</f>
-        <v>52.416760059774553</v>
+        <v>53.745463977568846</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q2*Scenarios!$B$8</f>
-        <v>52.416760059774553</v>
+        <v>49.734972335786097</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R2*Scenarios!$B$8</f>
-        <v>52.416760059774553</v>
+        <v>49.734972335786097</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S2*Scenarios!$B$8</f>
-        <v>52.416760059774553</v>
+        <v>50.060037514451359</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T2*Scenarios!$B$8</f>
-        <v>52.416760059774553</v>
+        <v>49.816238630452411</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U2*Scenarios!$B$8</f>
-        <v>52.416760059774553</v>
+        <v>53.745463977568846</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V2*Scenarios!$B$8</f>
-        <v>52.416760059774553</v>
+        <v>49.491173451787141</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W2*Scenarios!$B$8</f>
-        <v>58.889620429946717</v>
+        <v>55.903084100959568</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X2*Scenarios!$B$8</f>
-        <v>43.152402467814397</v>
+        <v>45.834190191802868</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y2*Scenarios!$B$8</f>
-        <v>43.152402467814397</v>
+        <v>45.834190191802868</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5259,99 +5259,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B3*Scenarios!$B$8</f>
-        <v>60.791251725138537</v>
+        <v>44.14791457747679</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C3*Scenarios!$B$8</f>
-        <v>60.791251725138537</v>
+        <v>44.960577524139964</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D3*Scenarios!$B$8</f>
-        <v>60.791251725138537</v>
+        <v>44.960577524139964</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E3*Scenarios!$B$8</f>
-        <v>60.791251725138537</v>
+        <v>55.283428604128893</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F3*Scenarios!$B$8</f>
-        <v>60.791251725138537</v>
+        <v>49.202678105721709</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G3*Scenarios!$B$8</f>
-        <v>60.791251725138537</v>
+        <v>74.771086065111746</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H3*Scenarios!$B$8</f>
-        <v>48.881676241789762</v>
+        <v>74.068132616248107</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I3*Scenarios!$B$8</f>
-        <v>48.028380147793428</v>
+        <v>48.556611063124492</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J3*Scenarios!$B$8</f>
-        <v>48.028380147793428</v>
+        <v>49.044208831122397</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K3*Scenarios!$B$8</f>
-        <v>115.80446989950192</v>
+        <v>60.055791758408368</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L3*Scenarios!$B$8</f>
-        <v>48.881676241789762</v>
+        <v>48.901992815456339</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M3*Scenarios!$B$8</f>
-        <v>48.881676241789762</v>
+        <v>48.901992815456339</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N3*Scenarios!$B$8</f>
-        <v>48.881676241789762</v>
+        <v>60.27927406874074</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O3*Scenarios!$B$8</f>
-        <v>48.881676241789762</v>
+        <v>60.27927406874074</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P3*Scenarios!$B$8</f>
-        <v>60.791251725138537</v>
+        <v>50.886922062681144</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q3*Scenarios!$B$8</f>
-        <v>48.759776799790288</v>
+        <v>48.881676241789762</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R3*Scenarios!$B$8</f>
-        <v>48.028380147793428</v>
+        <v>49.247374567788192</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S3*Scenarios!$B$8</f>
-        <v>48.759776799790288</v>
+        <v>49.531806599120308</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T3*Scenarios!$B$8</f>
-        <v>48.028380147793428</v>
+        <v>49.40990715712082</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U3*Scenarios!$B$8</f>
-        <v>60.791251725138537</v>
+        <v>50.886922062681144</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V3*Scenarios!$B$8</f>
-        <v>48.028380147793428</v>
+        <v>48.759776799790288</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W3*Scenarios!$B$8</f>
-        <v>60.791251725138537</v>
+        <v>51.965732124376501</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X3*Scenarios!$B$8</f>
-        <v>45.590391307803912</v>
+        <v>47.296983495796574</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y3*Scenarios!$B$8</f>
-        <v>45.590391307803912</v>
+        <v>47.296983495796574</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5706,99 +5706,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B3*Scenarios!$B$9</f>
-        <v>48.028380147793428</v>
+        <v>34.031276720203628</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C3*Scenarios!$B$9</f>
-        <v>48.028380147793428</v>
+        <v>34.031276720203628</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D3*Scenarios!$B$9</f>
-        <v>48.028380147793428</v>
+        <v>34.031276720203628</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E3*Scenarios!$B$9</f>
-        <v>48.028380147793428</v>
+        <v>34.031276720203628</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F3*Scenarios!$B$9</f>
-        <v>48.028380147793428</v>
+        <v>38.556793504434168</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G3*Scenarios!$B$9</f>
-        <v>8.6061006051629843</v>
+        <v>28.692081160626596</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H3*Scenarios!$B$9</f>
-        <v>36.533262767242867</v>
+        <v>35.692156617446493</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I3*Scenarios!$B$9</f>
-        <v>25.05033533089226</v>
+        <v>32.812282300208878</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J3*Scenarios!$B$9</f>
-        <v>25.05033533089226</v>
+        <v>32.812282300208878</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K3*Scenarios!$B$9</f>
-        <v>44.676145492807848</v>
+        <v>37.727877298837733</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L3*Scenarios!$B$9</f>
-        <v>44.676145492807848</v>
+        <v>40.424902453076136</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M3*Scenarios!$B$9</f>
-        <v>44.676145492807848</v>
+        <v>37.709592382537814</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N3*Scenarios!$B$9</f>
-        <v>36.533262767242867</v>
+        <v>35.673871701146567</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O3*Scenarios!$B$9</f>
-        <v>36.533262767242867</v>
+        <v>35.673871701146567</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P3*Scenarios!$B$9</f>
-        <v>36.533262767242867</v>
+        <v>38.389181771684889</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q3*Scenarios!$B$9</f>
-        <v>44.676145492807848</v>
+        <v>37.691307466237895</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R3*Scenarios!$B$9</f>
-        <v>44.676145492807848</v>
+        <v>40.424902453076136</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S3*Scenarios!$B$9</f>
-        <v>44.676145492807848</v>
+        <v>37.691307466237895</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T3*Scenarios!$B$9</f>
-        <v>44.676145492807848</v>
+        <v>37.691307466237895</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U3*Scenarios!$B$9</f>
-        <v>44.676145492807848</v>
+        <v>37.691307466237895</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V3*Scenarios!$B$9</f>
-        <v>44.676145492807848</v>
+        <v>37.691307466237895</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W3*Scenarios!$B$9</f>
-        <v>36.533262767242867</v>
+        <v>35.655586784846648</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X3*Scenarios!$B$9</f>
-        <v>31.925463859662692</v>
+        <v>34.5036370579516</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y3*Scenarios!$B$9</f>
-        <v>31.925463859662692</v>
+        <v>33.56196386850565</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5807,99 +5807,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B4*Scenarios!$B$9</f>
-        <v>2.7061676123883611</v>
+        <v>38.696977862733561</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C4*Scenarios!$B$9</f>
-        <v>2.681787723988466</v>
+        <v>38.696977862733561</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D4*Scenarios!$B$9</f>
-        <v>2.7061676123883611</v>
+        <v>38.696977862733561</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E4*Scenarios!$B$9</f>
-        <v>2.7061676123883611</v>
+        <v>38.696977862733561</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F4*Scenarios!$B$9</f>
-        <v>45.72448069400334</v>
+        <v>41.71398905222059</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G4*Scenarios!$B$9</f>
-        <v>45.736670638203293</v>
+        <v>21.996754308805393</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H4*Scenarios!$B$9</f>
-        <v>45.736670638203293</v>
+        <v>35.97252533404528</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I4*Scenarios!$B$9</f>
-        <v>24.404268288295036</v>
+        <v>30.224966643770003</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J4*Scenarios!$B$9</f>
-        <v>31.693854919863686</v>
+        <v>30.224966643770003</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K4*Scenarios!$B$9</f>
-        <v>45.72448069400334</v>
+        <v>40.043966696827773</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L4*Scenarios!$B$9</f>
-        <v>45.72448069400334</v>
+        <v>41.841983466320038</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M4*Scenarios!$B$9</f>
-        <v>46.199888517801291</v>
+        <v>40.031776752627827</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N4*Scenarios!$B$9</f>
-        <v>46.199888517801291</v>
+        <v>35.960335389845334</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O4*Scenarios!$B$9</f>
-        <v>46.199888517801291</v>
+        <v>35.960335389845334</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P4*Scenarios!$B$9</f>
-        <v>45.72448069400334</v>
+        <v>37.770542103537551</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q4*Scenarios!$B$9</f>
-        <v>45.72448069400334</v>
+        <v>40.019586808427874</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R4*Scenarios!$B$9</f>
-        <v>31.291586761265417</v>
+        <v>41.841983466320038</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S4*Scenarios!$B$9</f>
-        <v>45.72448069400334</v>
+        <v>40.019586808427874</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T4*Scenarios!$B$9</f>
-        <v>45.72448069400334</v>
+        <v>40.019586808427874</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U4*Scenarios!$B$9</f>
-        <v>45.72448069400334</v>
+        <v>40.019586808427874</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V4*Scenarios!$B$9</f>
-        <v>45.72448069400334</v>
+        <v>40.019586808427874</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W4*Scenarios!$B$9</f>
-        <v>45.72448069400334</v>
+        <v>35.948145445645387</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X4*Scenarios!$B$9</f>
-        <v>36.801441539641722</v>
+        <v>33.6442459918553</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y4*Scenarios!$B$9</f>
-        <v>36.801441539641722</v>
+        <v>33.016463865557995</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/CS1/Market Data/CS1_market_data_2030.xlsx
+++ b/data/CS1/Market Data/CS1_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3AD34D-DAEC-428B-8E75-065BAA059690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5667A79C-BFD4-4394-BA30-84FFB71D8F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2240,7 +2240,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2256,16 +2256,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="D1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
